--- a/data_voor_swing/uploadfiles/ggw7_type.xlsx
+++ b/data_voor_swing/uploadfiles/ggw7_type.xlsx
@@ -3639,7 +3639,7 @@
         <v>1970.00</v>
       </c>
       <c r="D203" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="204" spans="1:4" s="0" outlineLevel="0">
@@ -5175,7 +5175,7 @@
         <v>1970.00</v>
       </c>
       <c r="D299" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="300" spans="1:4" s="0" outlineLevel="0">

--- a/data_voor_swing/uploadfiles/ggw7_type.xlsx
+++ b/data_voor_swing/uploadfiles/ggw7_type.xlsx
@@ -1527,7 +1527,7 @@
         <v>1970.00</v>
       </c>
       <c r="D71" s="8">
-        <v>3.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="0" outlineLevel="0">
@@ -1543,7 +1543,7 @@
         <v>1970.00</v>
       </c>
       <c r="D72" s="8">
-        <v>3.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="0" outlineLevel="0">
@@ -1559,7 +1559,7 @@
         <v>1970.00</v>
       </c>
       <c r="D73" s="8">
-        <v>3.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="0" outlineLevel="0">
@@ -1575,7 +1575,7 @@
         <v>1970.00</v>
       </c>
       <c r="D74" s="8">
-        <v>3.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="0" outlineLevel="0">
@@ -1591,7 +1591,7 @@
         <v>1970.00</v>
       </c>
       <c r="D75" s="8">
-        <v>3.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="0" outlineLevel="0">
@@ -1607,7 +1607,7 @@
         <v>1970.00</v>
       </c>
       <c r="D76" s="8">
-        <v>3.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="0" outlineLevel="0">
@@ -1623,7 +1623,7 @@
         <v>1970.00</v>
       </c>
       <c r="D77" s="8">
-        <v>3.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="0" outlineLevel="0">
@@ -1639,7 +1639,7 @@
         <v>1970.00</v>
       </c>
       <c r="D78" s="8">
-        <v>3.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="0" outlineLevel="0">
@@ -1655,7 +1655,7 @@
         <v>1970.00</v>
       </c>
       <c r="D79" s="8">
-        <v>3.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="0" outlineLevel="0">
@@ -1671,7 +1671,7 @@
         <v>1970.00</v>
       </c>
       <c r="D80" s="8">
-        <v>3.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="0" outlineLevel="0">
@@ -1687,7 +1687,7 @@
         <v>1970.00</v>
       </c>
       <c r="D81" s="8">
-        <v>3.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="0" outlineLevel="0">
@@ -1703,7 +1703,7 @@
         <v>1970.00</v>
       </c>
       <c r="D82" s="8">
-        <v>3.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="0" outlineLevel="0">
@@ -1719,7 +1719,7 @@
         <v>1970.00</v>
       </c>
       <c r="D83" s="8">
-        <v>3.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="0" outlineLevel="0">
@@ -1735,7 +1735,7 @@
         <v>1970.00</v>
       </c>
       <c r="D84" s="8">
-        <v>3.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="0" outlineLevel="0">
@@ -1751,7 +1751,7 @@
         <v>1970.00</v>
       </c>
       <c r="D85" s="8">
-        <v>3.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="0" outlineLevel="0">
@@ -1767,7 +1767,7 @@
         <v>1970.00</v>
       </c>
       <c r="D86" s="8">
-        <v>3.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="0" outlineLevel="0">
@@ -1783,7 +1783,7 @@
         <v>1970.00</v>
       </c>
       <c r="D87" s="8">
-        <v>3.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="0" outlineLevel="0">
@@ -1799,7 +1799,7 @@
         <v>1970.00</v>
       </c>
       <c r="D88" s="8">
-        <v>3.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="0" outlineLevel="0">
@@ -1815,7 +1815,7 @@
         <v>1970.00</v>
       </c>
       <c r="D89" s="8">
-        <v>3.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="0" outlineLevel="0">
@@ -1831,7 +1831,7 @@
         <v>1970.00</v>
       </c>
       <c r="D90" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="0" outlineLevel="0">
@@ -1863,7 +1863,7 @@
         <v>1970.00</v>
       </c>
       <c r="D92" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="0" outlineLevel="0">
@@ -1911,7 +1911,7 @@
         <v>1970.00</v>
       </c>
       <c r="D95" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="0" outlineLevel="0">
@@ -1927,7 +1927,7 @@
         <v>1970.00</v>
       </c>
       <c r="D96" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="0" outlineLevel="0">
@@ -1959,7 +1959,7 @@
         <v>1970.00</v>
       </c>
       <c r="D98" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="0" outlineLevel="0">
@@ -1975,7 +1975,7 @@
         <v>1970.00</v>
       </c>
       <c r="D99" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="0" outlineLevel="0">
@@ -1991,7 +1991,7 @@
         <v>1970.00</v>
       </c>
       <c r="D100" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="0" outlineLevel="0">
@@ -2039,7 +2039,7 @@
         <v>1970.00</v>
       </c>
       <c r="D103" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="0" outlineLevel="0">
@@ -2071,7 +2071,7 @@
         <v>1970.00</v>
       </c>
       <c r="D105" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="0" outlineLevel="0">
@@ -2087,7 +2087,7 @@
         <v>1970.00</v>
       </c>
       <c r="D106" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="0" outlineLevel="0">
@@ -2167,7 +2167,7 @@
         <v>1970.00</v>
       </c>
       <c r="D111" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="112" spans="1:4" s="0" outlineLevel="0">
@@ -2199,7 +2199,7 @@
         <v>1970.00</v>
       </c>
       <c r="D113" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="114" spans="1:4" s="0" outlineLevel="0">
@@ -2215,7 +2215,7 @@
         <v>1970.00</v>
       </c>
       <c r="D114" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="115" spans="1:4" s="0" outlineLevel="0">
@@ -2231,7 +2231,7 @@
         <v>1970.00</v>
       </c>
       <c r="D115" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="0" outlineLevel="0">
@@ -2359,7 +2359,7 @@
         <v>1970.00</v>
       </c>
       <c r="D123" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="124" spans="1:4" s="0" outlineLevel="0">
@@ -2391,7 +2391,7 @@
         <v>1970.00</v>
       </c>
       <c r="D125" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="126" spans="1:4" s="0" outlineLevel="0">
@@ -2407,7 +2407,7 @@
         <v>1970.00</v>
       </c>
       <c r="D126" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="0" outlineLevel="0">
@@ -2423,7 +2423,7 @@
         <v>1970.00</v>
       </c>
       <c r="D127" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="0" outlineLevel="0">
@@ -2455,7 +2455,7 @@
         <v>1970.00</v>
       </c>
       <c r="D129" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="130" spans="1:4" s="0" outlineLevel="0">
@@ -2471,7 +2471,7 @@
         <v>1970.00</v>
       </c>
       <c r="D130" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="131" spans="1:4" s="0" outlineLevel="0">
@@ -2535,7 +2535,7 @@
         <v>1970.00</v>
       </c>
       <c r="D134" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="135" spans="1:4" s="0" outlineLevel="0">
@@ -2567,7 +2567,7 @@
         <v>1970.00</v>
       </c>
       <c r="D136" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="137" spans="1:4" s="0" outlineLevel="0">
@@ -2615,7 +2615,7 @@
         <v>1970.00</v>
       </c>
       <c r="D139" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="140" spans="1:4" s="0" outlineLevel="0">
@@ -2647,7 +2647,7 @@
         <v>1970.00</v>
       </c>
       <c r="D141" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="142" spans="1:4" s="0" outlineLevel="0">
@@ -2663,7 +2663,7 @@
         <v>1970.00</v>
       </c>
       <c r="D142" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="143" spans="1:4" s="0" outlineLevel="0">
@@ -2695,7 +2695,7 @@
         <v>1970.00</v>
       </c>
       <c r="D144" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="0" outlineLevel="0">
@@ -2823,7 +2823,7 @@
         <v>1970.00</v>
       </c>
       <c r="D152" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="153" spans="1:4" s="0" outlineLevel="0">
@@ -3031,7 +3031,7 @@
         <v>1970.00</v>
       </c>
       <c r="D165" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="166" spans="1:4" s="0" outlineLevel="0">
@@ -3175,7 +3175,7 @@
         <v>1970.00</v>
       </c>
       <c r="D174" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="175" spans="1:4" s="0" outlineLevel="0">
@@ -3383,7 +3383,7 @@
         <v>1970.00</v>
       </c>
       <c r="D187" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="188" spans="1:4" s="0" outlineLevel="0">
@@ -3543,7 +3543,7 @@
         <v>1970.00</v>
       </c>
       <c r="D197" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="0" outlineLevel="0">
@@ -3575,7 +3575,7 @@
         <v>1970.00</v>
       </c>
       <c r="D199" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="0" outlineLevel="0">
@@ -5031,7 +5031,7 @@
         <v>1970.00</v>
       </c>
       <c r="D290" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="291" spans="1:4" s="0" outlineLevel="0">

--- a/data_voor_swing/uploadfiles/ggw7_type.xlsx
+++ b/data_voor_swing/uploadfiles/ggw7_type.xlsx
@@ -382,13 +382,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D320"/>
+  <dimension ref="A1:E320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" s="0" outlineLevel="0">
+    <row r="1" spans="1:5" s="0" outlineLevel="0">
       <c r="A1" t="inlineStr">
         <is>
           <t>geolevel</t>
@@ -409,8 +409,13 @@
           <t>v9900_type_ggw7</t>
         </is>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="0" outlineLevel="0">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>v9900_eerstewijk</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="0" outlineLevel="0">
       <c r="A2" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -425,8 +430,13 @@
       <c r="D2" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="0" outlineLevel="0">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>11001A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="0" outlineLevel="0">
       <c r="A3" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -441,8 +451,13 @@
       <c r="D3" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="0" outlineLevel="0">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>11002ANT01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="0" outlineLevel="0">
       <c r="A4" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -457,8 +472,13 @@
       <c r="D4" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="0" outlineLevel="0">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>11004A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="0" outlineLevel="0">
       <c r="A5" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -473,8 +493,13 @@
       <c r="D5" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="0" outlineLevel="0">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>11005A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="0" outlineLevel="0">
       <c r="A6" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -489,8 +514,13 @@
       <c r="D6" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="0" outlineLevel="0">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11007A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="0" outlineLevel="0">
       <c r="A7" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -505,8 +535,13 @@
       <c r="D7" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="0" outlineLevel="0">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>11008A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="0" outlineLevel="0">
       <c r="A8" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -521,8 +556,13 @@
       <c r="D8" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" s="0" outlineLevel="0">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>11009A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="0" outlineLevel="0">
       <c r="A9" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -537,8 +577,13 @@
       <c r="D9" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" s="0" outlineLevel="0">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>11013A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="0" outlineLevel="0">
       <c r="A10" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -553,8 +598,13 @@
       <c r="D10" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" s="0" outlineLevel="0">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>11016A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="0" outlineLevel="0">
       <c r="A11" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -569,8 +619,13 @@
       <c r="D11" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" s="0" outlineLevel="0">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>11018A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="0" outlineLevel="0">
       <c r="A12" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -585,8 +640,13 @@
       <c r="D12" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" s="0" outlineLevel="0">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11021A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="0" outlineLevel="0">
       <c r="A13" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -601,8 +661,13 @@
       <c r="D13" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" s="0" outlineLevel="0">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>11022A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="0" outlineLevel="0">
       <c r="A14" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -617,8 +682,13 @@
       <c r="D14" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="0" outlineLevel="0">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>11023A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="0" outlineLevel="0">
       <c r="A15" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -633,8 +703,13 @@
       <c r="D15" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" s="0" outlineLevel="0">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>11024A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="0" outlineLevel="0">
       <c r="A16" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -649,8 +724,13 @@
       <c r="D16" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" s="0" outlineLevel="0">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>11025A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="0" outlineLevel="0">
       <c r="A17" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -665,8 +745,13 @@
       <c r="D17" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="0" outlineLevel="0">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>11029A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="0" outlineLevel="0">
       <c r="A18" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -681,8 +766,13 @@
       <c r="D18" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" s="0" outlineLevel="0">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>11030A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="0" outlineLevel="0">
       <c r="A19" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -697,8 +787,13 @@
       <c r="D19" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" s="0" outlineLevel="0">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>11035A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="0" outlineLevel="0">
       <c r="A20" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -713,8 +808,13 @@
       <c r="D20" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" s="0" outlineLevel="0">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>11037A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="0" outlineLevel="0">
       <c r="A21" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -729,8 +829,13 @@
       <c r="D21" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" s="0" outlineLevel="0">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>11038A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="0" outlineLevel="0">
       <c r="A22" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -745,8 +850,13 @@
       <c r="D22" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" s="0" outlineLevel="0">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>11039A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="0" outlineLevel="0">
       <c r="A23" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -761,8 +871,13 @@
       <c r="D23" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" s="0" outlineLevel="0">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>11040A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="0" outlineLevel="0">
       <c r="A24" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -777,8 +892,13 @@
       <c r="D24" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" s="0" outlineLevel="0">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>11044A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="0" outlineLevel="0">
       <c r="A25" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -793,8 +913,13 @@
       <c r="D25" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" s="0" outlineLevel="0">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>11050A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="0" outlineLevel="0">
       <c r="A26" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -809,8 +934,13 @@
       <c r="D26" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" s="0" outlineLevel="0">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>11052A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="0" outlineLevel="0">
       <c r="A27" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -825,8 +955,13 @@
       <c r="D27" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" s="0" outlineLevel="0">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>11053A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="0" outlineLevel="0">
       <c r="A28" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -841,8 +976,13 @@
       <c r="D28" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" s="0" outlineLevel="0">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>11054A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="0" outlineLevel="0">
       <c r="A29" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -857,8 +997,13 @@
       <c r="D29" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" s="0" outlineLevel="0">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>11055A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="0" outlineLevel="0">
       <c r="A30" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -873,8 +1018,13 @@
       <c r="D30" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" s="0" outlineLevel="0">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>11056A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="0" outlineLevel="0">
       <c r="A31" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -889,8 +1039,13 @@
       <c r="D31" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" s="0" outlineLevel="0">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>11057A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="0" outlineLevel="0">
       <c r="A32" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -905,8 +1060,13 @@
       <c r="D32" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" s="0" outlineLevel="0">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>12002A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="0" outlineLevel="0">
       <c r="A33" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -921,8 +1081,13 @@
       <c r="D33" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" s="0" outlineLevel="0">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>12005A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="0" outlineLevel="0">
       <c r="A34" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -937,8 +1102,13 @@
       <c r="D34" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" s="0" outlineLevel="0">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>12007A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="0" outlineLevel="0">
       <c r="A35" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -953,8 +1123,13 @@
       <c r="D35" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" s="0" outlineLevel="0">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>12009A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="0" outlineLevel="0">
       <c r="A36" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -969,8 +1144,13 @@
       <c r="D36" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" s="0" outlineLevel="0">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>12014A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="0" outlineLevel="0">
       <c r="A37" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -985,8 +1165,13 @@
       <c r="D37" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" s="0" outlineLevel="0">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>12021A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="0" outlineLevel="0">
       <c r="A38" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1001,8 +1186,13 @@
       <c r="D38" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" s="0" outlineLevel="0">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1202501</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="0" outlineLevel="0">
       <c r="A39" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1017,8 +1207,13 @@
       <c r="D39" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" s="0" outlineLevel="0">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>12026A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="0" outlineLevel="0">
       <c r="A40" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1033,8 +1228,13 @@
       <c r="D40" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" s="0" outlineLevel="0">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>12029A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="0" outlineLevel="0">
       <c r="A41" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1049,8 +1249,13 @@
       <c r="D41" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" s="0" outlineLevel="0">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>12035_01</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="0" outlineLevel="0">
       <c r="A42" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1065,8 +1270,13 @@
       <c r="D42" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" s="0" outlineLevel="0">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>12040A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="0" outlineLevel="0">
       <c r="A43" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1081,8 +1291,13 @@
       <c r="D43" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" s="0" outlineLevel="0">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>12030A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="0" outlineLevel="0">
       <c r="A44" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1097,8 +1312,13 @@
       <c r="D44" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" s="0" outlineLevel="0">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>13001A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="0" outlineLevel="0">
       <c r="A45" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1113,8 +1333,13 @@
       <c r="D45" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" s="0" outlineLevel="0">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>13002A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="0" outlineLevel="0">
       <c r="A46" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1129,8 +1354,13 @@
       <c r="D46" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" s="0" outlineLevel="0">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>13003A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="0" outlineLevel="0">
       <c r="A47" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1145,8 +1375,13 @@
       <c r="D47" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" s="0" outlineLevel="0">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>13004_12</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="0" outlineLevel="0">
       <c r="A48" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1161,8 +1396,13 @@
       <c r="D48" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" s="0" outlineLevel="0">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>13006A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="0" outlineLevel="0">
       <c r="A49" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1177,8 +1417,13 @@
       <c r="D49" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" s="0" outlineLevel="0">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>13008A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="0" outlineLevel="0">
       <c r="A50" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1193,8 +1438,13 @@
       <c r="D50" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" s="0" outlineLevel="0">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>13010A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="0" outlineLevel="0">
       <c r="A51" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1209,8 +1459,13 @@
       <c r="D51" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" s="0" outlineLevel="0">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>13011A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="0" outlineLevel="0">
       <c r="A52" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1225,8 +1480,13 @@
       <c r="D52" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" s="0" outlineLevel="0">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>13012A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="0" outlineLevel="0">
       <c r="A53" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1241,8 +1501,13 @@
       <c r="D53" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" s="0" outlineLevel="0">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>13013A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="0" outlineLevel="0">
       <c r="A54" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1257,8 +1522,13 @@
       <c r="D54" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" s="0" outlineLevel="0">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>13014A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="0" outlineLevel="0">
       <c r="A55" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1273,8 +1543,13 @@
       <c r="D55" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" s="0" outlineLevel="0">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>13016A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="0" outlineLevel="0">
       <c r="A56" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1289,8 +1564,13 @@
       <c r="D56" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" s="0" outlineLevel="0">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>13017A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="0" outlineLevel="0">
       <c r="A57" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1305,8 +1585,13 @@
       <c r="D57" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" s="0" outlineLevel="0">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>13019A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="0" outlineLevel="0">
       <c r="A58" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1321,8 +1606,13 @@
       <c r="D58" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" s="0" outlineLevel="0">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>13021A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="0" outlineLevel="0">
       <c r="A59" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1337,8 +1627,13 @@
       <c r="D59" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" s="0" outlineLevel="0">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>13023A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="0" outlineLevel="0">
       <c r="A60" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1353,8 +1648,13 @@
       <c r="D60" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" s="0" outlineLevel="0">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>13025A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="0" outlineLevel="0">
       <c r="A61" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1369,8 +1669,13 @@
       <c r="D61" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" s="0" outlineLevel="0">
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>13029A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="0" outlineLevel="0">
       <c r="A62" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1385,8 +1690,13 @@
       <c r="D62" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" s="0" outlineLevel="0">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>13031_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="0" outlineLevel="0">
       <c r="A63" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1401,8 +1711,13 @@
       <c r="D63" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" s="0" outlineLevel="0">
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>13035A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="0" outlineLevel="0">
       <c r="A64" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1417,8 +1732,13 @@
       <c r="D64" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" s="0" outlineLevel="0">
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>13036A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="0" outlineLevel="0">
       <c r="A65" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1433,8 +1753,13 @@
       <c r="D65" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" s="0" outlineLevel="0">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>13037A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="0" outlineLevel="0">
       <c r="A66" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1449,8 +1774,13 @@
       <c r="D66" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" s="0" outlineLevel="0">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>13040_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="0" outlineLevel="0">
       <c r="A67" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1465,8 +1795,13 @@
       <c r="D67" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" s="0" outlineLevel="0">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>13044A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="0" outlineLevel="0">
       <c r="A68" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1481,8 +1816,13 @@
       <c r="D68" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" s="0" outlineLevel="0">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>13046_10</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="0" outlineLevel="0">
       <c r="A69" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1497,8 +1837,13 @@
       <c r="D69" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" s="0" outlineLevel="0">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>13049A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="0" outlineLevel="0">
       <c r="A70" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1513,8 +1858,13 @@
       <c r="D70" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" s="0" outlineLevel="0">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>13053A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="0" outlineLevel="0">
       <c r="A71" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1529,8 +1879,13 @@
       <c r="D71" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" s="0" outlineLevel="0">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>21001_11</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="0" outlineLevel="0">
       <c r="A72" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1545,8 +1900,13 @@
       <c r="D72" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" s="0" outlineLevel="0">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>21002_100</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="0" outlineLevel="0">
       <c r="A73" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1561,8 +1921,13 @@
       <c r="D73" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" s="0" outlineLevel="0">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>21003_64</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="0" outlineLevel="0">
       <c r="A74" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1577,8 +1942,13 @@
       <c r="D74" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" s="0" outlineLevel="0">
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>21004_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="0" outlineLevel="0">
       <c r="A75" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1593,8 +1963,13 @@
       <c r="D75" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" s="0" outlineLevel="0">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>21005_100</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="0" outlineLevel="0">
       <c r="A76" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1609,8 +1984,13 @@
       <c r="D76" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" s="0" outlineLevel="0">
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21006_700</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="0" outlineLevel="0">
       <c r="A77" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1625,8 +2005,13 @@
       <c r="D77" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" s="0" outlineLevel="0">
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>21007_117</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="0" outlineLevel="0">
       <c r="A78" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1641,8 +2026,13 @@
       <c r="D78" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" s="0" outlineLevel="0">
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>21008_68</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="0" outlineLevel="0">
       <c r="A79" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1657,8 +2047,13 @@
       <c r="D79" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" s="0" outlineLevel="0">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>21009_105</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="0" outlineLevel="0">
       <c r="A80" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1673,8 +2068,13 @@
       <c r="D80" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" s="0" outlineLevel="0">
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>21010_70</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="0" outlineLevel="0">
       <c r="A81" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1689,8 +2089,13 @@
       <c r="D81" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" s="0" outlineLevel="0">
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>21011_17</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="0" outlineLevel="0">
       <c r="A82" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1705,8 +2110,13 @@
       <c r="D82" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" s="0" outlineLevel="0">
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>21012_13</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="0" outlineLevel="0">
       <c r="A83" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1721,8 +2131,13 @@
       <c r="D83" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" s="0" outlineLevel="0">
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>21013_11</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="0" outlineLevel="0">
       <c r="A84" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1737,8 +2152,13 @@
       <c r="D84" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" s="0" outlineLevel="0">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>21014_21</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="0" outlineLevel="0">
       <c r="A85" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1753,8 +2173,13 @@
       <c r="D85" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" s="0" outlineLevel="0">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>21015_21</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="0" outlineLevel="0">
       <c r="A86" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1769,8 +2194,13 @@
       <c r="D86" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" s="0" outlineLevel="0">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>21016_108</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="0" outlineLevel="0">
       <c r="A87" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1785,8 +2215,13 @@
       <c r="D87" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" s="0" outlineLevel="0">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>21017_101</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="0" outlineLevel="0">
       <c r="A88" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1801,8 +2236,13 @@
       <c r="D88" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" s="0" outlineLevel="0">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>21018_30</t>
+        </is>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="0" outlineLevel="0">
       <c r="A89" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1817,8 +2257,13 @@
       <c r="D89" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" s="0" outlineLevel="0">
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>21019_31</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="0" outlineLevel="0">
       <c r="A90" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1833,8 +2278,13 @@
       <c r="D90" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" s="0" outlineLevel="0">
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>23002A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="0" outlineLevel="0">
       <c r="A91" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1849,8 +2299,13 @@
       <c r="D91" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" s="0" outlineLevel="0">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>23003A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="0" outlineLevel="0">
       <c r="A92" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1865,8 +2320,13 @@
       <c r="D92" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" s="0" outlineLevel="0">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>23009A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="0" outlineLevel="0">
       <c r="A93" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1881,8 +2341,13 @@
       <c r="D93" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" s="0" outlineLevel="0">
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>23016A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="0" outlineLevel="0">
       <c r="A94" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1897,8 +2362,13 @@
       <c r="D94" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" s="0" outlineLevel="0">
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>23023A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="0" outlineLevel="0">
       <c r="A95" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1913,8 +2383,13 @@
       <c r="D95" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" s="0" outlineLevel="0">
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>23024A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="0" outlineLevel="0">
       <c r="A96" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1929,8 +2404,13 @@
       <c r="D96" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" s="0" outlineLevel="0">
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>23025A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="0" outlineLevel="0">
       <c r="A97" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1945,8 +2425,13 @@
       <c r="D97" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" s="0" outlineLevel="0">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>23027A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="0" outlineLevel="0">
       <c r="A98" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1961,8 +2446,13 @@
       <c r="D98" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" s="0" outlineLevel="0">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>23032A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="0" outlineLevel="0">
       <c r="A99" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1977,8 +2467,13 @@
       <c r="D99" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" s="0" outlineLevel="0">
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>23033A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="0" outlineLevel="0">
       <c r="A100" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -1993,8 +2488,13 @@
       <c r="D100" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" s="0" outlineLevel="0">
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>23038A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="0" outlineLevel="0">
       <c r="A101" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2009,8 +2509,13 @@
       <c r="D101" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" s="0" outlineLevel="0">
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>23039A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="0" outlineLevel="0">
       <c r="A102" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2025,8 +2530,13 @@
       <c r="D102" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" s="0" outlineLevel="0">
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>23044A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="0" outlineLevel="0">
       <c r="A103" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2041,8 +2551,13 @@
       <c r="D103" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" s="0" outlineLevel="0">
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>23045A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="0" outlineLevel="0">
       <c r="A104" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2057,8 +2572,13 @@
       <c r="D104" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" s="0" outlineLevel="0">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>23047A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="0" outlineLevel="0">
       <c r="A105" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2073,8 +2593,13 @@
       <c r="D105" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" s="0" outlineLevel="0">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>23050A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="0" outlineLevel="0">
       <c r="A106" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2089,8 +2614,13 @@
       <c r="D106" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" s="0" outlineLevel="0">
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>23052A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="107" spans="1:5" s="0" outlineLevel="0">
       <c r="A107" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2105,8 +2635,13 @@
       <c r="D107" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" s="0" outlineLevel="0">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>23060A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="0" outlineLevel="0">
       <c r="A108" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2121,8 +2656,13 @@
       <c r="D108" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" s="0" outlineLevel="0">
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>23062A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="0" outlineLevel="0">
       <c r="A109" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2137,8 +2677,13 @@
       <c r="D109" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" s="0" outlineLevel="0">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>23064A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="110" spans="1:5" s="0" outlineLevel="0">
       <c r="A110" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2153,8 +2698,13 @@
       <c r="D110" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" s="0" outlineLevel="0">
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>23077A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="111" spans="1:5" s="0" outlineLevel="0">
       <c r="A111" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2169,8 +2719,13 @@
       <c r="D111" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" s="0" outlineLevel="0">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>23081A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="112" spans="1:5" s="0" outlineLevel="0">
       <c r="A112" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2185,8 +2740,13 @@
       <c r="D112" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" s="0" outlineLevel="0">
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>23086A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="113" spans="1:5" s="0" outlineLevel="0">
       <c r="A113" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2201,8 +2761,13 @@
       <c r="D113" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" s="0" outlineLevel="0">
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>23088A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="114" spans="1:5" s="0" outlineLevel="0">
       <c r="A114" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2217,8 +2782,13 @@
       <c r="D114" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" s="0" outlineLevel="0">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>23094A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="115" spans="1:5" s="0" outlineLevel="0">
       <c r="A115" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2233,8 +2803,13 @@
       <c r="D115" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" s="0" outlineLevel="0">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>23096A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="0" outlineLevel="0">
       <c r="A116" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2249,8 +2824,13 @@
       <c r="D116" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" s="0" outlineLevel="0">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>23097A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="117" spans="1:5" s="0" outlineLevel="0">
       <c r="A117" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2265,8 +2845,13 @@
       <c r="D117" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" s="0" outlineLevel="0">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>23098A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="118" spans="1:5" s="0" outlineLevel="0">
       <c r="A118" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2281,8 +2866,13 @@
       <c r="D118" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" s="0" outlineLevel="0">
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>23099A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="119" spans="1:5" s="0" outlineLevel="0">
       <c r="A119" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2297,8 +2887,13 @@
       <c r="D119" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" s="0" outlineLevel="0">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>23100A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="120" spans="1:5" s="0" outlineLevel="0">
       <c r="A120" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2313,8 +2908,13 @@
       <c r="D120" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" s="0" outlineLevel="0">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>23101A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="121" spans="1:5" s="0" outlineLevel="0">
       <c r="A121" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2329,8 +2929,13 @@
       <c r="D121" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" s="0" outlineLevel="0">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>23102A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="122" spans="1:5" s="0" outlineLevel="0">
       <c r="A122" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2345,8 +2950,13 @@
       <c r="D122" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" s="0" outlineLevel="0">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>23103A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="123" spans="1:5" s="0" outlineLevel="0">
       <c r="A123" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2361,8 +2971,13 @@
       <c r="D123" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" s="0" outlineLevel="0">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>23104A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="124" spans="1:5" s="0" outlineLevel="0">
       <c r="A124" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2377,8 +2992,13 @@
       <c r="D124" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" s="0" outlineLevel="0">
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>23105A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="125" spans="1:5" s="0" outlineLevel="0">
       <c r="A125" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2393,8 +3013,13 @@
       <c r="D125" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" s="0" outlineLevel="0">
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>24001A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="126" spans="1:5" s="0" outlineLevel="0">
       <c r="A126" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2409,8 +3034,13 @@
       <c r="D126" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" s="0" outlineLevel="0">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>24007A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="127" spans="1:5" s="0" outlineLevel="0">
       <c r="A127" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2425,8 +3055,13 @@
       <c r="D127" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" s="0" outlineLevel="0">
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>24008A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="128" spans="1:5" s="0" outlineLevel="0">
       <c r="A128" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2441,8 +3076,13 @@
       <c r="D128" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" s="0" outlineLevel="0">
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>24009A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="129" spans="1:5" s="0" outlineLevel="0">
       <c r="A129" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2457,8 +3097,13 @@
       <c r="D129" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" s="0" outlineLevel="0">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>24011A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="130" spans="1:5" s="0" outlineLevel="0">
       <c r="A130" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2473,8 +3118,13 @@
       <c r="D130" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" s="0" outlineLevel="0">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>24014A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="131" spans="1:5" s="0" outlineLevel="0">
       <c r="A131" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2489,8 +3139,13 @@
       <c r="D131" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" s="0" outlineLevel="0">
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>24016A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="132" spans="1:5" s="0" outlineLevel="0">
       <c r="A132" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2505,8 +3160,13 @@
       <c r="D132" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" s="0" outlineLevel="0">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>24020A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="133" spans="1:5" s="0" outlineLevel="0">
       <c r="A133" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2521,8 +3181,13 @@
       <c r="D133" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" s="0" outlineLevel="0">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>24028A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="134" spans="1:5" s="0" outlineLevel="0">
       <c r="A134" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2537,8 +3202,13 @@
       <c r="D134" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" s="0" outlineLevel="0">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>24033A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="135" spans="1:5" s="0" outlineLevel="0">
       <c r="A135" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2553,8 +3223,13 @@
       <c r="D135" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" s="0" outlineLevel="0">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>24038A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="136" spans="1:5" s="0" outlineLevel="0">
       <c r="A136" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2569,8 +3244,13 @@
       <c r="D136" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" s="0" outlineLevel="0">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>24041A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="137" spans="1:5" s="0" outlineLevel="0">
       <c r="A137" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2585,8 +3265,13 @@
       <c r="D137" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" s="0" outlineLevel="0">
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>24043A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="138" spans="1:5" s="0" outlineLevel="0">
       <c r="A138" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2601,8 +3286,13 @@
       <c r="D138" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" s="0" outlineLevel="0">
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>24045A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="139" spans="1:5" s="0" outlineLevel="0">
       <c r="A139" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2617,8 +3307,13 @@
       <c r="D139" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" s="0" outlineLevel="0">
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>24048A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="140" spans="1:5" s="0" outlineLevel="0">
       <c r="A140" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2633,8 +3328,13 @@
       <c r="D140" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" s="0" outlineLevel="0">
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>24054A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="141" spans="1:5" s="0" outlineLevel="0">
       <c r="A141" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2649,8 +3349,13 @@
       <c r="D141" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" s="0" outlineLevel="0">
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>24055A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="142" spans="1:5" s="0" outlineLevel="0">
       <c r="A142" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2665,8 +3370,13 @@
       <c r="D142" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" s="0" outlineLevel="0">
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>24059A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="143" spans="1:5" s="0" outlineLevel="0">
       <c r="A143" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2681,8 +3391,13 @@
       <c r="D143" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" s="0" outlineLevel="0">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>240621</t>
+        </is>
+      </c>
+    </row>
+    <row r="144" spans="1:5" s="0" outlineLevel="0">
       <c r="A144" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2697,8 +3412,13 @@
       <c r="D144" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" s="0" outlineLevel="0">
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>24066A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="145" spans="1:5" s="0" outlineLevel="0">
       <c r="A145" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2713,8 +3433,13 @@
       <c r="D145" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" s="0" outlineLevel="0">
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>24086A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="146" spans="1:5" s="0" outlineLevel="0">
       <c r="A146" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2729,8 +3454,13 @@
       <c r="D146" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" s="0" outlineLevel="0">
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>24094A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="147" spans="1:5" s="0" outlineLevel="0">
       <c r="A147" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2745,8 +3475,13 @@
       <c r="D147" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" s="0" outlineLevel="0">
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>24104A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="148" spans="1:5" s="0" outlineLevel="0">
       <c r="A148" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2761,8 +3496,13 @@
       <c r="D148" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" s="0" outlineLevel="0">
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>24107A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="149" spans="1:5" s="0" outlineLevel="0">
       <c r="A149" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2777,8 +3517,13 @@
       <c r="D149" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" s="0" outlineLevel="0">
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>24109A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" spans="1:5" s="0" outlineLevel="0">
       <c r="A150" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2793,8 +3538,13 @@
       <c r="D150" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" s="0" outlineLevel="0">
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>24130A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="151" spans="1:5" s="0" outlineLevel="0">
       <c r="A151" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2809,8 +3559,13 @@
       <c r="D151" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" s="0" outlineLevel="0">
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>24133A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="152" spans="1:5" s="0" outlineLevel="0">
       <c r="A152" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2825,8 +3580,13 @@
       <c r="D152" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" s="0" outlineLevel="0">
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>24134A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="153" spans="1:5" s="0" outlineLevel="0">
       <c r="A153" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2841,8 +3601,13 @@
       <c r="D153" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" s="0" outlineLevel="0">
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>24135A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="154" spans="1:5" s="0" outlineLevel="0">
       <c r="A154" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2857,8 +3622,13 @@
       <c r="D154" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" s="0" outlineLevel="0">
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>24137A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="155" spans="1:5" s="0" outlineLevel="0">
       <c r="A155" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2873,8 +3643,13 @@
       <c r="D155" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" s="0" outlineLevel="0">
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>31003A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="156" spans="1:5" s="0" outlineLevel="0">
       <c r="A156" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2889,8 +3664,13 @@
       <c r="D156" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" s="0" outlineLevel="0">
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>31004A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="157" spans="1:5" s="0" outlineLevel="0">
       <c r="A157" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2905,8 +3685,13 @@
       <c r="D157" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" s="0" outlineLevel="0">
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>31005ASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="158" spans="1:5" s="0" outlineLevel="0">
       <c r="A158" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2921,8 +3706,13 @@
       <c r="D158" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" s="0" outlineLevel="0">
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>31006A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="159" spans="1:5" s="0" outlineLevel="0">
       <c r="A159" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2937,8 +3727,13 @@
       <c r="D159" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" s="0" outlineLevel="0">
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>31012A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="160" spans="1:5" s="0" outlineLevel="0">
       <c r="A160" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2953,8 +3748,13 @@
       <c r="D160" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" s="0" outlineLevel="0">
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>31022A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="161" spans="1:5" s="0" outlineLevel="0">
       <c r="A161" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2969,8 +3769,13 @@
       <c r="D161" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" s="0" outlineLevel="0">
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>31033A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="162" spans="1:5" s="0" outlineLevel="0">
       <c r="A162" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -2985,8 +3790,13 @@
       <c r="D162" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" s="0" outlineLevel="0">
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>31040A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="163" spans="1:5" s="0" outlineLevel="0">
       <c r="A163" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3001,8 +3811,13 @@
       <c r="D163" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" s="0" outlineLevel="0">
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>31042A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="164" spans="1:5" s="0" outlineLevel="0">
       <c r="A164" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3017,8 +3832,13 @@
       <c r="D164" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" s="0" outlineLevel="0">
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>31043A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="165" spans="1:5" s="0" outlineLevel="0">
       <c r="A165" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3033,8 +3853,13 @@
       <c r="D165" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" s="0" outlineLevel="0">
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>32003BEER</t>
+        </is>
+      </c>
+    </row>
+    <row r="166" spans="1:5" s="0" outlineLevel="0">
       <c r="A166" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3049,8 +3874,13 @@
       <c r="D166" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" s="0" outlineLevel="0">
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>32006A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="0" outlineLevel="0">
       <c r="A167" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3065,8 +3895,13 @@
       <c r="D167" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" s="0" outlineLevel="0">
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>32010A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="168" spans="1:5" s="0" outlineLevel="0">
       <c r="A168" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3081,8 +3916,13 @@
       <c r="D168" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" s="0" outlineLevel="0">
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>32011A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="169" spans="1:5" s="0" outlineLevel="0">
       <c r="A169" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3097,8 +3937,13 @@
       <c r="D169" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" s="0" outlineLevel="0">
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>32030A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="170" spans="1:5" s="0" outlineLevel="0">
       <c r="A170" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3113,8 +3958,13 @@
       <c r="D170" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" s="0" outlineLevel="0">
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>33011BOE</t>
+        </is>
+      </c>
+    </row>
+    <row r="171" spans="1:5" s="0" outlineLevel="0">
       <c r="A171" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3129,8 +3979,13 @@
       <c r="D171" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" s="0" outlineLevel="0">
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>33016A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="172" spans="1:5" s="0" outlineLevel="0">
       <c r="A172" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3145,8 +4000,13 @@
       <c r="D172" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" s="0" outlineLevel="0">
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>33021A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="173" spans="1:5" s="0" outlineLevel="0">
       <c r="A173" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3161,8 +4021,13 @@
       <c r="D173" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" s="0" outlineLevel="0">
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>33029A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="174" spans="1:5" s="0" outlineLevel="0">
       <c r="A174" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3177,8 +4042,13 @@
       <c r="D174" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" s="0" outlineLevel="0">
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>33037BES</t>
+        </is>
+      </c>
+    </row>
+    <row r="175" spans="1:5" s="0" outlineLevel="0">
       <c r="A175" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3193,8 +4063,13 @@
       <c r="D175" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" s="0" outlineLevel="0">
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>33039A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="176" spans="1:5" s="0" outlineLevel="0">
       <c r="A176" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3209,8 +4084,13 @@
       <c r="D176" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" s="0" outlineLevel="0">
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>33040A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="177" spans="1:5" s="0" outlineLevel="0">
       <c r="A177" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3225,8 +4105,13 @@
       <c r="D177" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" s="0" outlineLevel="0">
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>33041A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="178" spans="1:5" s="0" outlineLevel="0">
       <c r="A178" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3241,8 +4126,13 @@
       <c r="D178" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" s="0" outlineLevel="0">
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>34002A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="179" spans="1:5" s="0" outlineLevel="0">
       <c r="A179" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3257,8 +4147,13 @@
       <c r="D179" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" s="0" outlineLevel="0">
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>34003A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="180" spans="1:5" s="0" outlineLevel="0">
       <c r="A180" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3273,8 +4168,13 @@
       <c r="D180" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" s="0" outlineLevel="0">
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>34009A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="181" spans="1:5" s="0" outlineLevel="0">
       <c r="A181" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3289,8 +4189,13 @@
       <c r="D181" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" s="0" outlineLevel="0">
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>34013A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="182" spans="1:5" s="0" outlineLevel="0">
       <c r="A182" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3305,8 +4210,13 @@
       <c r="D182" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" s="0" outlineLevel="0">
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>3402234022WA</t>
+        </is>
+      </c>
+    </row>
+    <row r="183" spans="1:5" s="0" outlineLevel="0">
       <c r="A183" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3321,8 +4231,13 @@
       <c r="D183" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" s="0" outlineLevel="0">
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>34023A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="184" spans="1:5" s="0" outlineLevel="0">
       <c r="A184" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3337,8 +4252,13 @@
       <c r="D184" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" s="0" outlineLevel="0">
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>34025A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="185" spans="1:5" s="0" outlineLevel="0">
       <c r="A185" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3353,8 +4273,13 @@
       <c r="D185" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" s="0" outlineLevel="0">
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>34027A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="186" spans="1:5" s="0" outlineLevel="0">
       <c r="A186" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3369,8 +4294,13 @@
       <c r="D186" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" s="0" outlineLevel="0">
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>34040A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="187" spans="1:5" s="0" outlineLevel="0">
       <c r="A187" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3385,8 +4315,13 @@
       <c r="D187" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" s="0" outlineLevel="0">
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>34041COOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="188" spans="1:5" s="0" outlineLevel="0">
       <c r="A188" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3401,8 +4336,13 @@
       <c r="D188" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" s="0" outlineLevel="0">
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>34042A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="189" spans="1:5" s="0" outlineLevel="0">
       <c r="A189" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3417,8 +4357,13 @@
       <c r="D189" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" s="0" outlineLevel="0">
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>34043A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="190" spans="1:5" s="0" outlineLevel="0">
       <c r="A190" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3433,8 +4378,13 @@
       <c r="D190" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" s="0" outlineLevel="0">
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>35002BD</t>
+        </is>
+      </c>
+    </row>
+    <row r="191" spans="1:5" s="0" outlineLevel="0">
       <c r="A191" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3449,8 +4399,13 @@
       <c r="D191" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" s="0" outlineLevel="0">
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>35005A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="192" spans="1:5" s="0" outlineLevel="0">
       <c r="A192" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3465,8 +4420,13 @@
       <c r="D192" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" s="0" outlineLevel="0">
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>35006A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="193" spans="1:5" s="0" outlineLevel="0">
       <c r="A193" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3481,8 +4441,13 @@
       <c r="D193" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" s="0" outlineLevel="0">
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>35011A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="194" spans="1:5" s="0" outlineLevel="0">
       <c r="A194" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3497,8 +4462,13 @@
       <c r="D194" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" s="0" outlineLevel="0">
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>35013CE</t>
+        </is>
+      </c>
+    </row>
+    <row r="195" spans="1:5" s="0" outlineLevel="0">
       <c r="A195" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3513,8 +4483,13 @@
       <c r="D195" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" s="0" outlineLevel="0">
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>35014A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="196" spans="1:5" s="0" outlineLevel="0">
       <c r="A196" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3529,8 +4504,13 @@
       <c r="D196" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" s="0" outlineLevel="0">
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>35029A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="197" spans="1:5" s="0" outlineLevel="0">
       <c r="A197" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3545,8 +4525,13 @@
       <c r="D197" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" s="0" outlineLevel="0">
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>36006GI</t>
+        </is>
+      </c>
+    </row>
+    <row r="198" spans="1:5" s="0" outlineLevel="0">
       <c r="A198" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3561,8 +4546,13 @@
       <c r="D198" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" s="0" outlineLevel="0">
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>36007A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="199" spans="1:5" s="0" outlineLevel="0">
       <c r="A199" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3577,8 +4567,13 @@
       <c r="D199" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" s="0" outlineLevel="0">
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>36008BOSM</t>
+        </is>
+      </c>
+    </row>
+    <row r="200" spans="1:5" s="0" outlineLevel="0">
       <c r="A200" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3593,8 +4588,13 @@
       <c r="D200" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" s="0" outlineLevel="0">
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>36010A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="201" spans="1:5" s="0" outlineLevel="0">
       <c r="A201" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3609,8 +4609,13 @@
       <c r="D201" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" s="0" outlineLevel="0">
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>36011A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="202" spans="1:5" s="0" outlineLevel="0">
       <c r="A202" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3625,8 +4630,13 @@
       <c r="D202" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" s="0" outlineLevel="0">
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>36012A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="203" spans="1:5" s="0" outlineLevel="0">
       <c r="A203" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3641,8 +4651,13 @@
       <c r="D203" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" s="0" outlineLevel="0">
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>36015BEIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="204" spans="1:5" s="0" outlineLevel="0">
       <c r="A204" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3657,8 +4672,13 @@
       <c r="D204" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" s="0" outlineLevel="0">
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>36019A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="205" spans="1:5" s="0" outlineLevel="0">
       <c r="A205" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3673,8 +4693,13 @@
       <c r="D205" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" s="0" outlineLevel="0">
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>37002A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="206" spans="1:5" s="0" outlineLevel="0">
       <c r="A206" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3689,8 +4714,13 @@
       <c r="D206" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" s="0" outlineLevel="0">
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>37007A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="207" spans="1:5" s="0" outlineLevel="0">
       <c r="A207" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3705,8 +4735,13 @@
       <c r="D207" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" s="0" outlineLevel="0">
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>37010A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="208" spans="1:5" s="0" outlineLevel="0">
       <c r="A208" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3721,8 +4756,13 @@
       <c r="D208" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" s="0" outlineLevel="0">
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>37011A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="209" spans="1:5" s="0" outlineLevel="0">
       <c r="A209" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3737,8 +4777,13 @@
       <c r="D209" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" s="0" outlineLevel="0">
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>37012A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="210" spans="1:5" s="0" outlineLevel="0">
       <c r="A210" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3753,8 +4798,13 @@
       <c r="D210" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" s="0" outlineLevel="0">
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>37015A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="211" spans="1:5" s="0" outlineLevel="0">
       <c r="A211" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3769,8 +4819,13 @@
       <c r="D211" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" s="0" outlineLevel="0">
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>37017A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="212" spans="1:5" s="0" outlineLevel="0">
       <c r="A212" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3785,8 +4840,13 @@
       <c r="D212" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" s="0" outlineLevel="0">
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>37018A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="213" spans="1:5" s="0" outlineLevel="0">
       <c r="A213" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3801,8 +4861,13 @@
       <c r="D213" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" s="0" outlineLevel="0">
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>37020A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="214" spans="1:5" s="0" outlineLevel="0">
       <c r="A214" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3817,8 +4882,13 @@
       <c r="D214" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" s="0" outlineLevel="0">
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>38002A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="215" spans="1:5" s="0" outlineLevel="0">
       <c r="A215" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3833,8 +4903,13 @@
       <c r="D215" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" s="0" outlineLevel="0">
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>38008A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="216" spans="1:5" s="0" outlineLevel="0">
       <c r="A216" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3849,8 +4924,13 @@
       <c r="D216" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" s="0" outlineLevel="0">
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>38014A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="217" spans="1:5" s="0" outlineLevel="0">
       <c r="A217" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3865,8 +4945,13 @@
       <c r="D217" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" s="0" outlineLevel="0">
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>38016A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="218" spans="1:5" s="0" outlineLevel="0">
       <c r="A218" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3881,8 +4966,13 @@
       <c r="D218" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" s="0" outlineLevel="0">
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>38025BK</t>
+        </is>
+      </c>
+    </row>
+    <row r="219" spans="1:5" s="0" outlineLevel="0">
       <c r="A219" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3897,8 +4987,13 @@
       <c r="D219" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" s="0" outlineLevel="0">
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>41002AALOCB</t>
+        </is>
+      </c>
+    </row>
+    <row r="220" spans="1:5" s="0" outlineLevel="0">
       <c r="A220" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3913,8 +5008,13 @@
       <c r="D220" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" s="0" outlineLevel="0">
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>41011A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="221" spans="1:5" s="0" outlineLevel="0">
       <c r="A221" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3929,8 +5029,13 @@
       <c r="D221" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" s="0" outlineLevel="0">
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>41018A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="222" spans="1:5" s="0" outlineLevel="0">
       <c r="A222" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3945,8 +5050,13 @@
       <c r="D222" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" s="0" outlineLevel="0">
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>41024A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="223" spans="1:5" s="0" outlineLevel="0">
       <c r="A223" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3961,8 +5071,13 @@
       <c r="D223" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" s="0" outlineLevel="0">
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>41027A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="224" spans="1:5" s="0" outlineLevel="0">
       <c r="A224" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3977,8 +5092,13 @@
       <c r="D224" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" s="0" outlineLevel="0">
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>41034A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="225" spans="1:5" s="0" outlineLevel="0">
       <c r="A225" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -3993,8 +5113,13 @@
       <c r="D225" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" s="0" outlineLevel="0">
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>41048A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="226" spans="1:5" s="0" outlineLevel="0">
       <c r="A226" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4009,8 +5134,13 @@
       <c r="D226" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" s="0" outlineLevel="0">
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>41063A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="227" spans="1:5" s="0" outlineLevel="0">
       <c r="A227" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4025,8 +5155,13 @@
       <c r="D227" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" s="0" outlineLevel="0">
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>41081A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="228" spans="1:5" s="0" outlineLevel="0">
       <c r="A228" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4041,8 +5176,13 @@
       <c r="D228" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" s="0" outlineLevel="0">
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>41082A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="229" spans="1:5" s="0" outlineLevel="0">
       <c r="A229" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4057,8 +5197,13 @@
       <c r="D229" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" s="0" outlineLevel="0">
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>42003A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="230" spans="1:5" s="0" outlineLevel="0">
       <c r="A230" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4073,8 +5218,13 @@
       <c r="D230" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" s="0" outlineLevel="0">
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>42004A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="231" spans="1:5" s="0" outlineLevel="0">
       <c r="A231" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4089,8 +5239,13 @@
       <c r="D231" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" s="0" outlineLevel="0">
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>42006A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="232" spans="1:5" s="0" outlineLevel="0">
       <c r="A232" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4105,8 +5260,13 @@
       <c r="D232" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" s="0" outlineLevel="0">
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>42008A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="233" spans="1:5" s="0" outlineLevel="0">
       <c r="A233" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4121,8 +5281,13 @@
       <c r="D233" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" s="0" outlineLevel="0">
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>42010A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="234" spans="1:5" s="0" outlineLevel="0">
       <c r="A234" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4137,8 +5302,13 @@
       <c r="D234" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" s="0" outlineLevel="0">
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>42011A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="235" spans="1:5" s="0" outlineLevel="0">
       <c r="A235" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4153,8 +5323,13 @@
       <c r="D235" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" s="0" outlineLevel="0">
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>42023A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="236" spans="1:5" s="0" outlineLevel="0">
       <c r="A236" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4169,8 +5344,13 @@
       <c r="D236" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" s="0" outlineLevel="0">
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>42025A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="237" spans="1:5" s="0" outlineLevel="0">
       <c r="A237" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4185,8 +5365,13 @@
       <c r="D237" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" s="0" outlineLevel="0">
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>42026A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="238" spans="1:5" s="0" outlineLevel="0">
       <c r="A238" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4201,8 +5386,13 @@
       <c r="D238" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" s="0" outlineLevel="0">
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>42028A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="239" spans="1:5" s="0" outlineLevel="0">
       <c r="A239" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4217,8 +5407,13 @@
       <c r="D239" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" s="0" outlineLevel="0">
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>43002A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="240" spans="1:5" s="0" outlineLevel="0">
       <c r="A240" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4233,8 +5428,13 @@
       <c r="D240" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" s="0" outlineLevel="0">
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>43005A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="241" spans="1:5" s="0" outlineLevel="0">
       <c r="A241" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4249,8 +5449,13 @@
       <c r="D241" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" s="0" outlineLevel="0">
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>43007A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="242" spans="1:5" s="0" outlineLevel="0">
       <c r="A242" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4265,8 +5470,13 @@
       <c r="D242" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" s="0" outlineLevel="0">
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>43010A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="243" spans="1:5" s="0" outlineLevel="0">
       <c r="A243" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4281,8 +5491,13 @@
       <c r="D243" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" s="0" outlineLevel="0">
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>43014A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="244" spans="1:5" s="0" outlineLevel="0">
       <c r="A244" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4297,8 +5512,13 @@
       <c r="D244" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" s="0" outlineLevel="0">
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>43018A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="245" spans="1:5" s="0" outlineLevel="0">
       <c r="A245" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4313,8 +5533,13 @@
       <c r="D245" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" s="0" outlineLevel="0">
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>44012A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="246" spans="1:5" s="0" outlineLevel="0">
       <c r="A246" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4329,8 +5554,13 @@
       <c r="D246" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" s="0" outlineLevel="0">
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>44013A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="247" spans="1:5" s="0" outlineLevel="0">
       <c r="A247" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4345,8 +5575,13 @@
       <c r="D247" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" s="0" outlineLevel="0">
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>44019A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="248" spans="1:5" s="0" outlineLevel="0">
       <c r="A248" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4361,8 +5596,13 @@
       <c r="D248" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" s="0" outlineLevel="0">
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>44020A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="249" spans="1:5" s="0" outlineLevel="0">
       <c r="A249" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4377,8 +5617,13 @@
       <c r="D249" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" s="0" outlineLevel="0">
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>440211</t>
+        </is>
+      </c>
+    </row>
+    <row r="250" spans="1:5" s="0" outlineLevel="0">
       <c r="A250" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4393,8 +5638,13 @@
       <c r="D250" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" s="0" outlineLevel="0">
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>44034A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="251" spans="1:5" s="0" outlineLevel="0">
       <c r="A251" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4409,8 +5659,13 @@
       <c r="D251" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" s="0" outlineLevel="0">
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>44040A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="252" spans="1:5" s="0" outlineLevel="0">
       <c r="A252" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4425,8 +5680,13 @@
       <c r="D252" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" s="0" outlineLevel="0">
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>44043A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="253" spans="1:5" s="0" outlineLevel="0">
       <c r="A253" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4441,8 +5701,13 @@
       <c r="D253" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" s="0" outlineLevel="0">
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>44045A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="254" spans="1:5" s="0" outlineLevel="0">
       <c r="A254" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4457,8 +5722,13 @@
       <c r="D254" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" s="0" outlineLevel="0">
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>44048A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="255" spans="1:5" s="0" outlineLevel="0">
       <c r="A255" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4473,8 +5743,13 @@
       <c r="D255" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" s="0" outlineLevel="0">
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>44052A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="256" spans="1:5" s="0" outlineLevel="0">
       <c r="A256" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4489,8 +5764,13 @@
       <c r="D256" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" s="0" outlineLevel="0">
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>44064A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="257" spans="1:5" s="0" outlineLevel="0">
       <c r="A257" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4505,8 +5785,13 @@
       <c r="D257" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" s="0" outlineLevel="0">
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>44073A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="258" spans="1:5" s="0" outlineLevel="0">
       <c r="A258" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4521,8 +5806,13 @@
       <c r="D258" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" s="0" outlineLevel="0">
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>44081A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="259" spans="1:5" s="0" outlineLevel="0">
       <c r="A259" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4537,8 +5827,13 @@
       <c r="D259" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" s="0" outlineLevel="0">
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>44011A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="260" spans="1:5" s="0" outlineLevel="0">
       <c r="A260" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4553,8 +5848,13 @@
       <c r="D260" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" s="0" outlineLevel="0">
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>44001A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="261" spans="1:5" s="0" outlineLevel="0">
       <c r="A261" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4569,8 +5869,13 @@
       <c r="D261" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" s="0" outlineLevel="0">
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>44036A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="262" spans="1:5" s="0" outlineLevel="0">
       <c r="A262" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4585,8 +5890,13 @@
       <c r="D262" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" s="0" outlineLevel="0">
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>45035A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="263" spans="1:5" s="0" outlineLevel="0">
       <c r="A263" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4601,8 +5911,13 @@
       <c r="D263" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" s="0" outlineLevel="0">
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>45041A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="264" spans="1:5" s="0" outlineLevel="0">
       <c r="A264" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4617,8 +5932,13 @@
       <c r="D264" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" s="0" outlineLevel="0">
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>45059A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="265" spans="1:5" s="0" outlineLevel="0">
       <c r="A265" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4633,8 +5953,13 @@
       <c r="D265" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" s="0" outlineLevel="0">
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>45060A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="266" spans="1:5" s="0" outlineLevel="0">
       <c r="A266" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4649,8 +5974,13 @@
       <c r="D266" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" s="0" outlineLevel="0">
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>45061A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="267" spans="1:5" s="0" outlineLevel="0">
       <c r="A267" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4665,8 +5995,13 @@
       <c r="D267" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" s="0" outlineLevel="0">
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>45062A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="268" spans="1:5" s="0" outlineLevel="0">
       <c r="A268" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4681,8 +6016,13 @@
       <c r="D268" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" s="0" outlineLevel="0">
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>45063A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="269" spans="1:5" s="0" outlineLevel="0">
       <c r="A269" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4697,8 +6037,13 @@
       <c r="D269" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" s="0" outlineLevel="0">
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>45064A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="270" spans="1:5" s="0" outlineLevel="0">
       <c r="A270" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4713,8 +6058,13 @@
       <c r="D270" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" s="0" outlineLevel="0">
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>45065A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="271" spans="1:5" s="0" outlineLevel="0">
       <c r="A271" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4729,8 +6079,13 @@
       <c r="D271" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" s="0" outlineLevel="0">
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>45017A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="272" spans="1:5" s="0" outlineLevel="0">
       <c r="A272" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4745,8 +6100,13 @@
       <c r="D272" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" s="0" outlineLevel="0">
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>46003A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="273" spans="1:5" s="0" outlineLevel="0">
       <c r="A273" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4761,8 +6121,13 @@
       <c r="D273" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" s="0" outlineLevel="0">
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>46013A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="274" spans="1:5" s="0" outlineLevel="0">
       <c r="A274" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4777,8 +6142,13 @@
       <c r="D274" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" s="0" outlineLevel="0">
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>46014A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="275" spans="1:5" s="0" outlineLevel="0">
       <c r="A275" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4793,8 +6163,13 @@
       <c r="D275" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" s="0" outlineLevel="0">
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>46020A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="276" spans="1:5" s="0" outlineLevel="0">
       <c r="A276" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4809,8 +6184,13 @@
       <c r="D276" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" s="0" outlineLevel="0">
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>46021SN01</t>
+        </is>
+      </c>
+    </row>
+    <row r="277" spans="1:5" s="0" outlineLevel="0">
       <c r="A277" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4825,8 +6205,13 @@
       <c r="D277" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" s="0" outlineLevel="0">
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>46024A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="278" spans="1:5" s="0" outlineLevel="0">
       <c r="A278" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4841,8 +6226,13 @@
       <c r="D278" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" s="0" outlineLevel="0">
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>46025A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="279" spans="1:5" s="0" outlineLevel="0">
       <c r="A279" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4857,8 +6247,13 @@
       <c r="D279" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" s="0" outlineLevel="0">
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>71002A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="280" spans="1:5" s="0" outlineLevel="0">
       <c r="A280" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4873,8 +6268,13 @@
       <c r="D280" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" s="0" outlineLevel="0">
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>7100401</t>
+        </is>
+      </c>
+    </row>
+    <row r="281" spans="1:5" s="0" outlineLevel="0">
       <c r="A281" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4889,8 +6289,13 @@
       <c r="D281" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" s="0" outlineLevel="0">
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>71011A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="282" spans="1:5" s="0" outlineLevel="0">
       <c r="A282" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4905,8 +6310,13 @@
       <c r="D282" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" s="0" outlineLevel="0">
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>710161</t>
+        </is>
+      </c>
+    </row>
+    <row r="283" spans="1:5" s="0" outlineLevel="0">
       <c r="A283" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4921,8 +6331,13 @@
       <c r="D283" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" s="0" outlineLevel="0">
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>71017A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="284" spans="1:5" s="0" outlineLevel="0">
       <c r="A284" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4937,8 +6352,13 @@
       <c r="D284" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" s="0" outlineLevel="0">
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>7102001</t>
+        </is>
+      </c>
+    </row>
+    <row r="285" spans="1:5" s="0" outlineLevel="0">
       <c r="A285" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4953,8 +6373,13 @@
       <c r="D285" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" s="0" outlineLevel="0">
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>71022A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="286" spans="1:5" s="0" outlineLevel="0">
       <c r="A286" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4969,8 +6394,13 @@
       <c r="D286" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" s="0" outlineLevel="0">
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>71024BB</t>
+        </is>
+      </c>
+    </row>
+    <row r="287" spans="1:5" s="0" outlineLevel="0">
       <c r="A287" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -4985,8 +6415,13 @@
       <c r="D287" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" s="0" outlineLevel="0">
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>71034A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="288" spans="1:5" s="0" outlineLevel="0">
       <c r="A288" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5001,8 +6436,13 @@
       <c r="D288" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" s="0" outlineLevel="0">
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>7103701</t>
+        </is>
+      </c>
+    </row>
+    <row r="289" spans="1:5" s="0" outlineLevel="0">
       <c r="A289" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5017,8 +6457,13 @@
       <c r="D289" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" s="0" outlineLevel="0">
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>71045A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="290" spans="1:5" s="0" outlineLevel="0">
       <c r="A290" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5033,8 +6478,13 @@
       <c r="D290" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" s="0" outlineLevel="0">
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>71053_01</t>
+        </is>
+      </c>
+    </row>
+    <row r="291" spans="1:5" s="0" outlineLevel="0">
       <c r="A291" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5049,8 +6499,13 @@
       <c r="D291" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" s="0" outlineLevel="0">
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>71057A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="292" spans="1:5" s="0" outlineLevel="0">
       <c r="A292" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5065,8 +6520,13 @@
       <c r="D292" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" s="0" outlineLevel="0">
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>71066A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="293" spans="1:5" s="0" outlineLevel="0">
       <c r="A293" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5081,8 +6541,13 @@
       <c r="D293" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" s="0" outlineLevel="0">
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>7106701</t>
+        </is>
+      </c>
+    </row>
+    <row r="294" spans="1:5" s="0" outlineLevel="0">
       <c r="A294" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5097,8 +6562,13 @@
       <c r="D294" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" s="0" outlineLevel="0">
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>7106901</t>
+        </is>
+      </c>
+    </row>
+    <row r="295" spans="1:5" s="0" outlineLevel="0">
       <c r="A295" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5113,8 +6583,13 @@
       <c r="D295" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" s="0" outlineLevel="0">
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>71070A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="296" spans="1:5" s="0" outlineLevel="0">
       <c r="A296" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5129,8 +6604,13 @@
       <c r="D296" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" s="0" outlineLevel="0">
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>7200301</t>
+        </is>
+      </c>
+    </row>
+    <row r="297" spans="1:5" s="0" outlineLevel="0">
       <c r="A297" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5145,8 +6625,13 @@
       <c r="D297" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" s="0" outlineLevel="0">
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>72004A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="298" spans="1:5" s="0" outlineLevel="0">
       <c r="A298" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5161,8 +6646,13 @@
       <c r="D298" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" s="0" outlineLevel="0">
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>7201801</t>
+        </is>
+      </c>
+    </row>
+    <row r="299" spans="1:5" s="0" outlineLevel="0">
       <c r="A299" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5177,8 +6667,13 @@
       <c r="D299" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" s="0" outlineLevel="0">
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>72020BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="300" spans="1:5" s="0" outlineLevel="0">
       <c r="A300" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5193,8 +6688,13 @@
       <c r="D300" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" s="0" outlineLevel="0">
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>7202101</t>
+        </is>
+      </c>
+    </row>
+    <row r="301" spans="1:5" s="0" outlineLevel="0">
       <c r="A301" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5209,8 +6709,13 @@
       <c r="D301" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" s="0" outlineLevel="0">
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>7203001</t>
+        </is>
+      </c>
+    </row>
+    <row r="302" spans="1:5" s="0" outlineLevel="0">
       <c r="A302" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5225,8 +6730,13 @@
       <c r="D302" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" s="0" outlineLevel="0">
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>7203701</t>
+        </is>
+      </c>
+    </row>
+    <row r="303" spans="1:5" s="0" outlineLevel="0">
       <c r="A303" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5241,8 +6751,13 @@
       <c r="D303" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" s="0" outlineLevel="0">
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>72038A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="304" spans="1:5" s="0" outlineLevel="0">
       <c r="A304" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5257,8 +6772,13 @@
       <c r="D304" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" s="0" outlineLevel="0">
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>72039A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="305" spans="1:5" s="0" outlineLevel="0">
       <c r="A305" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5273,8 +6793,13 @@
       <c r="D305" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" s="0" outlineLevel="0">
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>72041A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="306" spans="1:5" s="0" outlineLevel="0">
       <c r="A306" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5289,8 +6814,13 @@
       <c r="D306" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" s="0" outlineLevel="0">
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>71047A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="307" spans="1:5" s="0" outlineLevel="0">
       <c r="A307" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5305,8 +6835,13 @@
       <c r="D307" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" s="0" outlineLevel="0">
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>7204301</t>
+        </is>
+      </c>
+    </row>
+    <row r="308" spans="1:5" s="0" outlineLevel="0">
       <c r="A308" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5321,8 +6856,13 @@
       <c r="D308" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" s="0" outlineLevel="0">
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>73001A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="309" spans="1:5" s="0" outlineLevel="0">
       <c r="A309" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5337,8 +6877,13 @@
       <c r="D309" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" s="0" outlineLevel="0">
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>73006A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="310" spans="1:5" s="0" outlineLevel="0">
       <c r="A310" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5353,8 +6898,13 @@
       <c r="D310" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" s="0" outlineLevel="0">
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>73009A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="311" spans="1:5" s="0" outlineLevel="0">
       <c r="A311" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5369,8 +6919,13 @@
       <c r="D311" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" s="0" outlineLevel="0">
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>73022A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="312" spans="1:5" s="0" outlineLevel="0">
       <c r="A312" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5385,8 +6940,13 @@
       <c r="D312" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" s="0" outlineLevel="0">
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>73028A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="313" spans="1:5" s="0" outlineLevel="0">
       <c r="A313" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5401,8 +6961,13 @@
       <c r="D313" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" s="0" outlineLevel="0">
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>73032A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="314" spans="1:5" s="0" outlineLevel="0">
       <c r="A314" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5417,8 +6982,13 @@
       <c r="D314" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" s="0" outlineLevel="0">
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>73040GU</t>
+        </is>
+      </c>
+    </row>
+    <row r="315" spans="1:5" s="0" outlineLevel="0">
       <c r="A315" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5433,8 +7003,13 @@
       <c r="D315" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" s="0" outlineLevel="0">
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>73042A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="316" spans="1:5" s="0" outlineLevel="0">
       <c r="A316" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5449,8 +7024,13 @@
       <c r="D316" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" s="0" outlineLevel="0">
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>73066A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="317" spans="1:5" s="0" outlineLevel="0">
       <c r="A317" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5465,8 +7045,13 @@
       <c r="D317" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" s="0" outlineLevel="0">
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>73083A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="318" spans="1:5" s="0" outlineLevel="0">
       <c r="A318" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5481,8 +7066,13 @@
       <c r="D318" s="8">
         <v>2.00</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" s="0" outlineLevel="0">
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>73098A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="319" spans="1:5" s="0" outlineLevel="0">
       <c r="A319" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5497,8 +7087,13 @@
       <c r="D319" s="8">
         <v>1.00</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" s="0" outlineLevel="0">
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>7310710A</t>
+        </is>
+      </c>
+    </row>
+    <row r="320" spans="1:5" s="0" outlineLevel="0">
       <c r="A320" t="inlineStr">
         <is>
           <t>gemeente</t>
@@ -5512,6 +7107,11 @@
       </c>
       <c r="D320" s="8">
         <v>2.00</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>73109A0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data_voor_swing/uploadfiles/ggw7_type.xlsx
+++ b/data_voor_swing/uploadfiles/ggw7_type.xlsx
@@ -1247,11 +1247,11 @@
         <v>1970.00</v>
       </c>
       <c r="D41" s="8">
-        <v>1.00</v>
+        <v>2.00</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>12035_01</t>
+          <t>12035A0</t>
         </is>
       </c>
     </row>
@@ -3746,11 +3746,11 @@
         <v>1970.00</v>
       </c>
       <c r="D160" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>31022A0</t>
+          <t>31022BAB</t>
         </is>
       </c>
     </row>
@@ -3830,11 +3830,11 @@
         <v>1970.00</v>
       </c>
       <c r="D164" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>31043A0</t>
+          <t>31043DUI</t>
         </is>
       </c>
     </row>
@@ -4082,11 +4082,11 @@
         <v>1970.00</v>
       </c>
       <c r="D176" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>33040A0</t>
+          <t>33040BIKS</t>
         </is>
       </c>
     </row>
@@ -4166,11 +4166,11 @@
         <v>1970.00</v>
       </c>
       <c r="D180" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>34009A0</t>
+          <t>34009BELG</t>
         </is>
       </c>
     </row>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>3402234022WA</t>
+          <t>34022WA</t>
         </is>
       </c>
     </row>
@@ -4271,11 +4271,11 @@
         <v>1970.00</v>
       </c>
       <c r="D185" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>34027A0</t>
+          <t>34027BAR</t>
         </is>
       </c>
     </row>
@@ -4292,11 +4292,11 @@
         <v>1970.00</v>
       </c>
       <c r="D186" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>34040A0</t>
+          <t>34040BEVL</t>
         </is>
       </c>
     </row>
@@ -4334,11 +4334,11 @@
         <v>1970.00</v>
       </c>
       <c r="D188" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>34042A0</t>
+          <t>34042CENT</t>
         </is>
       </c>
     </row>
@@ -6812,11 +6812,11 @@
         <v>1970.00</v>
       </c>
       <c r="D306" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>71047A0</t>
+          <t>72042EL</t>
         </is>
       </c>
     </row>

--- a/data_voor_swing/uploadfiles/ggw7_type.xlsx
+++ b/data_voor_swing/uploadfiles/ggw7_type.xlsx
@@ -743,11 +743,11 @@
         <v>1970.00</v>
       </c>
       <c r="D17" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11029A0</t>
+          <t>110291</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
         <v>1970.00</v>
       </c>
       <c r="D41" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>1970.00</v>
       </c>
       <c r="D94" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>1970.00</v>
       </c>
       <c r="D97" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>1970.00</v>
       </c>
       <c r="D107" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>1970.00</v>
       </c>
       <c r="D116" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>1970.00</v>
       </c>
       <c r="D121" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3284,11 +3284,11 @@
         <v>1970.00</v>
       </c>
       <c r="D138" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>24045A0</t>
+          <t>24045</t>
         </is>
       </c>
     </row>
@@ -3788,11 +3788,11 @@
         <v>1970.00</v>
       </c>
       <c r="D162" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>31040A0</t>
+          <t>31040AARBU</t>
         </is>
       </c>
     </row>
@@ -4187,11 +4187,11 @@
         <v>1970.00</v>
       </c>
       <c r="D181" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>34013A0</t>
+          <t>34013AW</t>
         </is>
       </c>
     </row>
@@ -4586,11 +4586,11 @@
         <v>1970.00</v>
       </c>
       <c r="D200" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>36010A0</t>
+          <t>36010LEDBU</t>
         </is>
       </c>
     </row>
@@ -4733,11 +4733,11 @@
         <v>1970.00</v>
       </c>
       <c r="D207" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>37010A0</t>
+          <t>37010GIN</t>
         </is>
       </c>
     </row>
@@ -4817,11 +4817,11 @@
         <v>1970.00</v>
       </c>
       <c r="D211" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>37017A0</t>
+          <t>37017INDU</t>
         </is>
       </c>
     </row>
@@ -5384,11 +5384,11 @@
         <v>1970.00</v>
       </c>
       <c r="D238" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>42028A0</t>
+          <t>42028AD</t>
         </is>
       </c>
     </row>
@@ -5426,11 +5426,11 @@
         <v>1970.00</v>
       </c>
       <c r="D240" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>43005A0</t>
+          <t>43005BAL</t>
         </is>
       </c>
     </row>
@@ -6455,7 +6455,7 @@
         <v>1970.00</v>
       </c>
       <c r="D289" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -6581,11 +6581,11 @@
         <v>1970.00</v>
       </c>
       <c r="D295" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>71070A0</t>
+          <t>71070BER</t>
         </is>
       </c>
     </row>

--- a/data_voor_swing/uploadfiles/ggw7_type.xlsx
+++ b/data_voor_swing/uploadfiles/ggw7_type.xlsx
@@ -1499,11 +1499,11 @@
         <v>1970.00</v>
       </c>
       <c r="D53" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>13013A0</t>
+          <t>13013BER</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
         <v>1970.00</v>
       </c>
       <c r="D93" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>1970.00</v>
       </c>
       <c r="D101" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>1970.00</v>
       </c>
       <c r="D102" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2738,11 +2738,11 @@
         <v>1970.00</v>
       </c>
       <c r="D112" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>23086A0</t>
+          <t>23086B0</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
         <v>1970.00</v>
       </c>
       <c r="D131" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>1970.00</v>
       </c>
       <c r="D140" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>1970.00</v>
       </c>
       <c r="D146" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>1970.00</v>
       </c>
       <c r="D148" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3767,11 +3767,11 @@
         <v>1970.00</v>
       </c>
       <c r="D161" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>31033A0</t>
+          <t>31033CENT</t>
         </is>
       </c>
     </row>
@@ -3977,11 +3977,11 @@
         <v>1970.00</v>
       </c>
       <c r="D171" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>33016A0</t>
+          <t>33016MEB</t>
         </is>
       </c>
     </row>
@@ -4544,11 +4544,11 @@
         <v>1970.00</v>
       </c>
       <c r="D198" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>36007A0</t>
+          <t>36007INGNO</t>
         </is>
       </c>
     </row>

--- a/data_voor_swing/uploadfiles/ggw7_type.xlsx
+++ b/data_voor_swing/uploadfiles/ggw7_type.xlsx
@@ -470,11 +470,11 @@
         <v>1970.00</v>
       </c>
       <c r="D4" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11004A0</t>
+          <t>1100401</t>
         </is>
       </c>
     </row>
@@ -638,11 +638,11 @@
         <v>1970.00</v>
       </c>
       <c r="D12" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11021A0</t>
+          <t>1102101</t>
         </is>
       </c>
     </row>
@@ -701,11 +701,11 @@
         <v>1970.00</v>
       </c>
       <c r="D15" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11024A0</t>
+          <t>1102401</t>
         </is>
       </c>
     </row>
@@ -911,11 +911,11 @@
         <v>1970.00</v>
       </c>
       <c r="D25" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11050A0</t>
+          <t>1105001</t>
         </is>
       </c>
     </row>
@@ -1058,11 +1058,11 @@
         <v>1970.00</v>
       </c>
       <c r="D32" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12002A0</t>
+          <t>120021</t>
         </is>
       </c>
     </row>
@@ -1205,11 +1205,11 @@
         <v>1970.00</v>
       </c>
       <c r="D39" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12026A0</t>
+          <t>1202601</t>
         </is>
       </c>
     </row>
@@ -1331,11 +1331,11 @@
         <v>1970.00</v>
       </c>
       <c r="D45" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>13002A0</t>
+          <t>1300201</t>
         </is>
       </c>
     </row>
@@ -1352,11 +1352,11 @@
         <v>1970.00</v>
       </c>
       <c r="D46" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>13003A0</t>
+          <t>1300208</t>
         </is>
       </c>
     </row>
@@ -1436,11 +1436,11 @@
         <v>1970.00</v>
       </c>
       <c r="D50" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>13010A0</t>
+          <t>130101</t>
         </is>
       </c>
     </row>
@@ -1457,11 +1457,11 @@
         <v>1970.00</v>
       </c>
       <c r="D51" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>13011A0</t>
+          <t>1301101</t>
         </is>
       </c>
     </row>
@@ -1562,11 +1562,11 @@
         <v>1970.00</v>
       </c>
       <c r="D56" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>13017A0</t>
+          <t>1301701</t>
         </is>
       </c>
     </row>
@@ -1835,11 +1835,11 @@
         <v>1970.00</v>
       </c>
       <c r="D69" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>13049A0</t>
+          <t>1104901</t>
         </is>
       </c>
     </row>
@@ -2297,11 +2297,11 @@
         <v>1970.00</v>
       </c>
       <c r="D91" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>23003A0</t>
+          <t>23003A022</t>
         </is>
       </c>
     </row>
@@ -2696,11 +2696,11 @@
         <v>1970.00</v>
       </c>
       <c r="D110" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>23077A0</t>
+          <t>23077GDR1</t>
         </is>
       </c>
     </row>
@@ -3074,11 +3074,11 @@
         <v>1970.00</v>
       </c>
       <c r="D128" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>24009A0</t>
+          <t>24009A02</t>
         </is>
       </c>
     </row>
@@ -3431,11 +3431,11 @@
         <v>1970.00</v>
       </c>
       <c r="D145" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>24086A0</t>
+          <t>24086A02</t>
         </is>
       </c>
     </row>
@@ -3893,11 +3893,11 @@
         <v>1970.00</v>
       </c>
       <c r="D167" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>32010A0</t>
+          <t>32010BOKE</t>
         </is>
       </c>
     </row>
@@ -3914,11 +3914,11 @@
         <v>1970.00</v>
       </c>
       <c r="D168" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>32011A0</t>
+          <t>32011EWA</t>
         </is>
       </c>
     </row>
@@ -3998,11 +3998,11 @@
         <v>1970.00</v>
       </c>
       <c r="D172" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>33021A0</t>
+          <t>33021ABEL</t>
         </is>
       </c>
     </row>
@@ -4061,11 +4061,11 @@
         <v>1970.00</v>
       </c>
       <c r="D175" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>33039A0</t>
+          <t>33039DEKL</t>
         </is>
       </c>
     </row>
@@ -4145,11 +4145,11 @@
         <v>1970.00</v>
       </c>
       <c r="D179" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>34003A0</t>
+          <t>34003AVE</t>
         </is>
       </c>
     </row>
@@ -4880,11 +4880,11 @@
         <v>1970.00</v>
       </c>
       <c r="D214" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>38002A0</t>
+          <t>38002ALV</t>
         </is>
       </c>
     </row>
@@ -4922,11 +4922,11 @@
         <v>1970.00</v>
       </c>
       <c r="D216" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>38014A0</t>
+          <t>38014BG</t>
         </is>
       </c>
     </row>
@@ -5153,11 +5153,11 @@
         <v>1970.00</v>
       </c>
       <c r="D227" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>41081A0</t>
+          <t>4108101</t>
         </is>
       </c>
     </row>
@@ -5237,11 +5237,11 @@
         <v>1970.00</v>
       </c>
       <c r="D231" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>42006A0</t>
+          <t>4200601</t>
         </is>
       </c>
     </row>
@@ -5594,11 +5594,11 @@
         <v>1970.00</v>
       </c>
       <c r="D248" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>44020A0</t>
+          <t>4402001</t>
         </is>
       </c>
     </row>
@@ -5825,11 +5825,11 @@
         <v>1970.00</v>
       </c>
       <c r="D259" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>44011A0</t>
+          <t>4401101</t>
         </is>
       </c>
     </row>
@@ -5951,11 +5951,11 @@
         <v>1970.00</v>
       </c>
       <c r="D265" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>45060A0</t>
+          <t>4506001</t>
         </is>
       </c>
     </row>
@@ -6035,11 +6035,11 @@
         <v>1970.00</v>
       </c>
       <c r="D269" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>45064A0</t>
+          <t>4506401</t>
         </is>
       </c>
     </row>

--- a/data_voor_swing/uploadfiles/ggw7_type.xlsx
+++ b/data_voor_swing/uploadfiles/ggw7_type.xlsx
@@ -5720,11 +5720,11 @@
         <v>1970.00</v>
       </c>
       <c r="D254" s="8">
-        <v>2.00</v>
+        <v>1.00</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>44048A0</t>
+          <t>4404801</t>
         </is>
       </c>
     </row>

--- a/data_voor_swing/uploadfiles/ggw7_type.xlsx
+++ b/data_voor_swing/uploadfiles/ggw7_type.xlsx
@@ -425,14 +425,14 @@
         <v>11001</v>
       </c>
       <c r="C2" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D2" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11001A0</t>
+          <t>1100101</t>
         </is>
       </c>
     </row>
@@ -446,10 +446,10 @@
         <v>11002</v>
       </c>
       <c r="C3" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D3" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -467,10 +467,10 @@
         <v>11004</v>
       </c>
       <c r="C4" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D4" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -488,14 +488,14 @@
         <v>11005</v>
       </c>
       <c r="C5" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D5" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11005A0</t>
+          <t>1100501</t>
         </is>
       </c>
     </row>
@@ -509,14 +509,14 @@
         <v>11007</v>
       </c>
       <c r="C6" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D6" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11007A0</t>
+          <t>1100701</t>
         </is>
       </c>
     </row>
@@ -530,14 +530,14 @@
         <v>11008</v>
       </c>
       <c r="C7" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D7" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11008A0</t>
+          <t>1100801</t>
         </is>
       </c>
     </row>
@@ -551,14 +551,14 @@
         <v>11009</v>
       </c>
       <c r="C8" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D8" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11009A0</t>
+          <t>1100901</t>
         </is>
       </c>
     </row>
@@ -572,14 +572,14 @@
         <v>11013</v>
       </c>
       <c r="C9" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D9" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11013A0</t>
+          <t>1101301</t>
         </is>
       </c>
     </row>
@@ -593,10 +593,10 @@
         <v>11016</v>
       </c>
       <c r="C10" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D10" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -614,10 +614,10 @@
         <v>11018</v>
       </c>
       <c r="C11" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D11" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -635,10 +635,10 @@
         <v>11021</v>
       </c>
       <c r="C12" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D12" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -656,14 +656,14 @@
         <v>11022</v>
       </c>
       <c r="C13" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D13" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11022A0</t>
+          <t>1102201</t>
         </is>
       </c>
     </row>
@@ -677,14 +677,14 @@
         <v>11023</v>
       </c>
       <c r="C14" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D14" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11023A0</t>
+          <t>1102301</t>
         </is>
       </c>
     </row>
@@ -698,10 +698,10 @@
         <v>11024</v>
       </c>
       <c r="C15" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D15" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -719,14 +719,14 @@
         <v>11025</v>
       </c>
       <c r="C16" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D16" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11025A0</t>
+          <t>1102501</t>
         </is>
       </c>
     </row>
@@ -740,10 +740,10 @@
         <v>11029</v>
       </c>
       <c r="C17" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D17" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -761,10 +761,10 @@
         <v>11030</v>
       </c>
       <c r="C18" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D18" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         <v>11035</v>
       </c>
       <c r="C19" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D19" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
         <v>11037</v>
       </c>
       <c r="C20" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D20" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -824,10 +824,10 @@
         <v>11038</v>
       </c>
       <c r="C21" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D21" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -845,10 +845,10 @@
         <v>11039</v>
       </c>
       <c r="C22" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D22" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -866,10 +866,10 @@
         <v>11040</v>
       </c>
       <c r="C23" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D23" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -887,14 +887,14 @@
         <v>11044</v>
       </c>
       <c r="C24" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D24" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11044A0</t>
+          <t>1104401</t>
         </is>
       </c>
     </row>
@@ -908,10 +908,10 @@
         <v>11050</v>
       </c>
       <c r="C25" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D25" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -929,14 +929,14 @@
         <v>11052</v>
       </c>
       <c r="C26" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D26" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11052A0</t>
+          <t>1105201</t>
         </is>
       </c>
     </row>
@@ -950,10 +950,10 @@
         <v>11053</v>
       </c>
       <c r="C27" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D27" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -971,10 +971,10 @@
         <v>11054</v>
       </c>
       <c r="C28" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D28" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -992,14 +992,14 @@
         <v>11055</v>
       </c>
       <c r="C29" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D29" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11055A0</t>
+          <t>1105501</t>
         </is>
       </c>
     </row>
@@ -1013,10 +1013,10 @@
         <v>11056</v>
       </c>
       <c r="C30" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D30" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1034,14 +1034,14 @@
         <v>11057</v>
       </c>
       <c r="C31" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D31" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11057A0</t>
+          <t>1105701</t>
         </is>
       </c>
     </row>
@@ -1055,10 +1055,10 @@
         <v>12002</v>
       </c>
       <c r="C32" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D32" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
         <v>12005</v>
       </c>
       <c r="C33" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D33" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1097,14 +1097,14 @@
         <v>12007</v>
       </c>
       <c r="C34" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D34" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12007A0</t>
+          <t>1200701</t>
         </is>
       </c>
     </row>
@@ -1118,14 +1118,14 @@
         <v>12009</v>
       </c>
       <c r="C35" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D35" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12009A0</t>
+          <t>1200901</t>
         </is>
       </c>
     </row>
@@ -1139,14 +1139,14 @@
         <v>12014</v>
       </c>
       <c r="C36" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D36" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12014A0</t>
+          <t>1201401</t>
         </is>
       </c>
     </row>
@@ -1160,14 +1160,14 @@
         <v>12021</v>
       </c>
       <c r="C37" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D37" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12021A0</t>
+          <t>1202101</t>
         </is>
       </c>
     </row>
@@ -1181,10 +1181,10 @@
         <v>12025</v>
       </c>
       <c r="C38" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D38" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1202,10 +1202,10 @@
         <v>12026</v>
       </c>
       <c r="C39" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D39" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1223,10 +1223,10 @@
         <v>12029</v>
       </c>
       <c r="C40" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D40" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1244,10 +1244,10 @@
         <v>12035</v>
       </c>
       <c r="C41" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D41" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1265,14 +1265,14 @@
         <v>12040</v>
       </c>
       <c r="C42" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D42" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>12040A0</t>
+          <t>1204001</t>
         </is>
       </c>
     </row>
@@ -1286,14 +1286,14 @@
         <v>12041</v>
       </c>
       <c r="C43" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D43" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>12030A0</t>
+          <t>1204101</t>
         </is>
       </c>
     </row>
@@ -1307,14 +1307,14 @@
         <v>13001</v>
       </c>
       <c r="C44" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D44" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>13001A0</t>
+          <t>1300101</t>
         </is>
       </c>
     </row>
@@ -1328,10 +1328,10 @@
         <v>13002</v>
       </c>
       <c r="C45" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D45" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1349,10 +1349,10 @@
         <v>13003</v>
       </c>
       <c r="C46" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D46" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1370,14 +1370,14 @@
         <v>13004</v>
       </c>
       <c r="C47" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D47" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>13004_12</t>
+          <t>1300401</t>
         </is>
       </c>
     </row>
@@ -1391,10 +1391,10 @@
         <v>13006</v>
       </c>
       <c r="C48" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D48" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1412,10 +1412,10 @@
         <v>13008</v>
       </c>
       <c r="C49" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D49" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1433,10 +1433,10 @@
         <v>13010</v>
       </c>
       <c r="C50" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D50" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1454,10 +1454,10 @@
         <v>13011</v>
       </c>
       <c r="C51" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D51" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1475,14 +1475,14 @@
         <v>13012</v>
       </c>
       <c r="C52" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D52" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>13012A0</t>
+          <t>1301201</t>
         </is>
       </c>
     </row>
@@ -1496,10 +1496,10 @@
         <v>13013</v>
       </c>
       <c r="C53" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D53" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1517,14 +1517,14 @@
         <v>13014</v>
       </c>
       <c r="C54" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D54" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>13014A0</t>
+          <t>1301401</t>
         </is>
       </c>
     </row>
@@ -1538,10 +1538,10 @@
         <v>13016</v>
       </c>
       <c r="C55" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D55" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1559,10 +1559,10 @@
         <v>13017</v>
       </c>
       <c r="C56" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D56" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1580,14 +1580,14 @@
         <v>13019</v>
       </c>
       <c r="C57" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D57" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>13019A0</t>
+          <t>1301901</t>
         </is>
       </c>
     </row>
@@ -1601,14 +1601,14 @@
         <v>13021</v>
       </c>
       <c r="C58" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D58" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>13021A0</t>
+          <t>1302101</t>
         </is>
       </c>
     </row>
@@ -1622,10 +1622,10 @@
         <v>13023</v>
       </c>
       <c r="C59" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D59" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1643,10 +1643,10 @@
         <v>13025</v>
       </c>
       <c r="C60" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D60" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1664,14 +1664,14 @@
         <v>13029</v>
       </c>
       <c r="C61" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D61" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>13029A0</t>
+          <t>1302901</t>
         </is>
       </c>
     </row>
@@ -1685,10 +1685,10 @@
         <v>13031</v>
       </c>
       <c r="C62" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D62" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1706,14 +1706,14 @@
         <v>13035</v>
       </c>
       <c r="C63" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D63" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>13035A0</t>
+          <t>1303501</t>
         </is>
       </c>
     </row>
@@ -1727,10 +1727,10 @@
         <v>13036</v>
       </c>
       <c r="C64" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D64" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1748,10 +1748,10 @@
         <v>13037</v>
       </c>
       <c r="C65" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D65" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1769,10 +1769,10 @@
         <v>13040</v>
       </c>
       <c r="C66" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D66" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1790,10 +1790,10 @@
         <v>13044</v>
       </c>
       <c r="C67" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D67" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1811,10 +1811,10 @@
         <v>13046</v>
       </c>
       <c r="C68" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D68" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1832,10 +1832,10 @@
         <v>13049</v>
       </c>
       <c r="C69" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D69" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1853,14 +1853,14 @@
         <v>13053</v>
       </c>
       <c r="C70" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D70" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>13053A0</t>
+          <t>1305301</t>
         </is>
       </c>
     </row>
@@ -1874,10 +1874,10 @@
         <v>21001</v>
       </c>
       <c r="C71" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D71" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1895,10 +1895,10 @@
         <v>21002</v>
       </c>
       <c r="C72" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D72" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1916,10 +1916,10 @@
         <v>21003</v>
       </c>
       <c r="C73" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D73" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1937,10 +1937,10 @@
         <v>21004</v>
       </c>
       <c r="C74" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D74" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1958,10 +1958,10 @@
         <v>21005</v>
       </c>
       <c r="C75" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D75" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1979,10 +1979,10 @@
         <v>21006</v>
       </c>
       <c r="C76" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D76" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2000,10 +2000,10 @@
         <v>21007</v>
       </c>
       <c r="C77" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D77" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2021,10 +2021,10 @@
         <v>21008</v>
       </c>
       <c r="C78" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D78" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2042,10 +2042,10 @@
         <v>21009</v>
       </c>
       <c r="C79" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D79" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2063,10 +2063,10 @@
         <v>21010</v>
       </c>
       <c r="C80" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D80" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>21011</v>
       </c>
       <c r="C81" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D81" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2105,10 +2105,10 @@
         <v>21012</v>
       </c>
       <c r="C82" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D82" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2126,10 +2126,10 @@
         <v>21013</v>
       </c>
       <c r="C83" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D83" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2147,10 +2147,10 @@
         <v>21014</v>
       </c>
       <c r="C84" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D84" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2168,10 +2168,10 @@
         <v>21015</v>
       </c>
       <c r="C85" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D85" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2189,10 +2189,10 @@
         <v>21016</v>
       </c>
       <c r="C86" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D86" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2210,10 +2210,10 @@
         <v>21017</v>
       </c>
       <c r="C87" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D87" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2231,10 +2231,10 @@
         <v>21018</v>
       </c>
       <c r="C88" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D88" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2252,10 +2252,10 @@
         <v>21019</v>
       </c>
       <c r="C89" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D89" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2273,10 +2273,10 @@
         <v>23002</v>
       </c>
       <c r="C90" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D90" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2294,10 +2294,10 @@
         <v>23003</v>
       </c>
       <c r="C91" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D91" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2315,10 +2315,10 @@
         <v>23009</v>
       </c>
       <c r="C92" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D92" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2336,10 +2336,10 @@
         <v>23016</v>
       </c>
       <c r="C93" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D93" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2357,10 +2357,10 @@
         <v>23023</v>
       </c>
       <c r="C94" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D94" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2378,10 +2378,10 @@
         <v>23024</v>
       </c>
       <c r="C95" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D95" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2399,10 +2399,10 @@
         <v>23025</v>
       </c>
       <c r="C96" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D96" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2420,10 +2420,10 @@
         <v>23027</v>
       </c>
       <c r="C97" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D97" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2441,10 +2441,10 @@
         <v>23032</v>
       </c>
       <c r="C98" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D98" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2462,10 +2462,10 @@
         <v>23033</v>
       </c>
       <c r="C99" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D99" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2483,10 +2483,10 @@
         <v>23038</v>
       </c>
       <c r="C100" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D100" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2504,10 +2504,10 @@
         <v>23039</v>
       </c>
       <c r="C101" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D101" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2525,10 +2525,10 @@
         <v>23044</v>
       </c>
       <c r="C102" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D102" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2546,10 +2546,10 @@
         <v>23045</v>
       </c>
       <c r="C103" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D103" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2567,10 +2567,10 @@
         <v>23047</v>
       </c>
       <c r="C104" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D104" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2588,10 +2588,10 @@
         <v>23050</v>
       </c>
       <c r="C105" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D105" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2609,10 +2609,10 @@
         <v>23052</v>
       </c>
       <c r="C106" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D106" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2630,10 +2630,10 @@
         <v>23060</v>
       </c>
       <c r="C107" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D107" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2651,10 +2651,10 @@
         <v>23062</v>
       </c>
       <c r="C108" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D108" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2672,14 +2672,14 @@
         <v>23064</v>
       </c>
       <c r="C109" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D109" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>23064A0</t>
+          <t>23064A3n</t>
         </is>
       </c>
     </row>
@@ -2693,10 +2693,10 @@
         <v>23077</v>
       </c>
       <c r="C110" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D110" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2714,10 +2714,10 @@
         <v>23081</v>
       </c>
       <c r="C111" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D111" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2735,10 +2735,10 @@
         <v>23086</v>
       </c>
       <c r="C112" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D112" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2756,10 +2756,10 @@
         <v>23088</v>
       </c>
       <c r="C113" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D113" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2777,10 +2777,10 @@
         <v>23094</v>
       </c>
       <c r="C114" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D114" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2798,10 +2798,10 @@
         <v>23096</v>
       </c>
       <c r="C115" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D115" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2819,10 +2819,10 @@
         <v>23097</v>
       </c>
       <c r="C116" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D116" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2840,10 +2840,10 @@
         <v>23098</v>
       </c>
       <c r="C117" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D117" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2861,14 +2861,14 @@
         <v>23099</v>
       </c>
       <c r="C118" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D118" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>23099A0</t>
+          <t>23099A0n</t>
         </is>
       </c>
     </row>
@@ -2882,14 +2882,14 @@
         <v>23100</v>
       </c>
       <c r="C119" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D119" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>23100A0</t>
+          <t>23100A0n</t>
         </is>
       </c>
     </row>
@@ -2903,10 +2903,10 @@
         <v>23101</v>
       </c>
       <c r="C120" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D120" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2924,10 +2924,10 @@
         <v>23102</v>
       </c>
       <c r="C121" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D121" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2945,10 +2945,10 @@
         <v>23103</v>
       </c>
       <c r="C122" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D122" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2966,10 +2966,10 @@
         <v>23104</v>
       </c>
       <c r="C123" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D123" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2987,14 +2987,14 @@
         <v>23105</v>
       </c>
       <c r="C124" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D124" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>23105A0</t>
+          <t>23105A0n</t>
         </is>
       </c>
     </row>
@@ -3008,10 +3008,10 @@
         <v>24001</v>
       </c>
       <c r="C125" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D125" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3029,10 +3029,10 @@
         <v>24007</v>
       </c>
       <c r="C126" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D126" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3050,10 +3050,10 @@
         <v>24008</v>
       </c>
       <c r="C127" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D127" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3071,10 +3071,10 @@
         <v>24009</v>
       </c>
       <c r="C128" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D128" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3092,10 +3092,10 @@
         <v>24011</v>
       </c>
       <c r="C129" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D129" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3113,10 +3113,10 @@
         <v>24014</v>
       </c>
       <c r="C130" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D130" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3134,10 +3134,10 @@
         <v>24016</v>
       </c>
       <c r="C131" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D131" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3155,14 +3155,14 @@
         <v>24020</v>
       </c>
       <c r="C132" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D132" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>24020A0</t>
+          <t>24020A0n</t>
         </is>
       </c>
     </row>
@@ -3176,10 +3176,10 @@
         <v>24028</v>
       </c>
       <c r="C133" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D133" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3197,10 +3197,10 @@
         <v>24033</v>
       </c>
       <c r="C134" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D134" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3218,10 +3218,10 @@
         <v>24038</v>
       </c>
       <c r="C135" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D135" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3239,10 +3239,10 @@
         <v>24041</v>
       </c>
       <c r="C136" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D136" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3260,14 +3260,14 @@
         <v>24043</v>
       </c>
       <c r="C137" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D137" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>24043A0</t>
+          <t>24043A0n</t>
         </is>
       </c>
     </row>
@@ -3281,10 +3281,10 @@
         <v>24045</v>
       </c>
       <c r="C138" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D138" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3302,10 +3302,10 @@
         <v>24048</v>
       </c>
       <c r="C139" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D139" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3323,10 +3323,10 @@
         <v>24054</v>
       </c>
       <c r="C140" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D140" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3344,10 +3344,10 @@
         <v>24055</v>
       </c>
       <c r="C141" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D141" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3365,10 +3365,10 @@
         <v>24059</v>
       </c>
       <c r="C142" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D142" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3386,10 +3386,10 @@
         <v>24062</v>
       </c>
       <c r="C143" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D143" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3407,10 +3407,10 @@
         <v>24066</v>
       </c>
       <c r="C144" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D144" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3428,10 +3428,10 @@
         <v>24086</v>
       </c>
       <c r="C145" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D145" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3449,10 +3449,10 @@
         <v>24094</v>
       </c>
       <c r="C146" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D146" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3470,10 +3470,10 @@
         <v>24104</v>
       </c>
       <c r="C147" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D147" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3491,10 +3491,10 @@
         <v>24107</v>
       </c>
       <c r="C148" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D148" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3512,10 +3512,10 @@
         <v>24109</v>
       </c>
       <c r="C149" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D149" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3533,14 +3533,14 @@
         <v>24130</v>
       </c>
       <c r="C150" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D150" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>24130A0</t>
+          <t>24130A0n</t>
         </is>
       </c>
     </row>
@@ -3554,10 +3554,10 @@
         <v>24133</v>
       </c>
       <c r="C151" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D151" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3575,10 +3575,10 @@
         <v>24134</v>
       </c>
       <c r="C152" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D152" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3596,14 +3596,14 @@
         <v>24135</v>
       </c>
       <c r="C153" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D153" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>24135A0</t>
+          <t>24135A0n</t>
         </is>
       </c>
     </row>
@@ -3617,10 +3617,10 @@
         <v>24137</v>
       </c>
       <c r="C154" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D154" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3638,10 +3638,10 @@
         <v>31003</v>
       </c>
       <c r="C155" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D155" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3659,10 +3659,10 @@
         <v>31004</v>
       </c>
       <c r="C156" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D156" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3680,10 +3680,10 @@
         <v>31005</v>
       </c>
       <c r="C157" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D157" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3701,10 +3701,10 @@
         <v>31006</v>
       </c>
       <c r="C158" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D158" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3722,10 +3722,10 @@
         <v>31012</v>
       </c>
       <c r="C159" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D159" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3743,10 +3743,10 @@
         <v>31022</v>
       </c>
       <c r="C160" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D160" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         <v>31033</v>
       </c>
       <c r="C161" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D161" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3785,10 +3785,10 @@
         <v>31040</v>
       </c>
       <c r="C162" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D162" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3806,10 +3806,10 @@
         <v>31042</v>
       </c>
       <c r="C163" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D163" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3827,10 +3827,10 @@
         <v>31043</v>
       </c>
       <c r="C164" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D164" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3848,10 +3848,10 @@
         <v>32003</v>
       </c>
       <c r="C165" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D165" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3869,14 +3869,14 @@
         <v>32006</v>
       </c>
       <c r="C166" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D166" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>32006A0</t>
+          <t>32006HOUH</t>
         </is>
       </c>
     </row>
@@ -3890,10 +3890,10 @@
         <v>32010</v>
       </c>
       <c r="C167" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D167" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3911,10 +3911,10 @@
         <v>32011</v>
       </c>
       <c r="C168" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D168" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3932,10 +3932,10 @@
         <v>32030</v>
       </c>
       <c r="C169" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D169" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -3953,10 +3953,10 @@
         <v>33011</v>
       </c>
       <c r="C170" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D170" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3974,10 +3974,10 @@
         <v>33016</v>
       </c>
       <c r="C171" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D171" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -3995,10 +3995,10 @@
         <v>33021</v>
       </c>
       <c r="C172" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D172" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -4016,10 +4016,10 @@
         <v>33029</v>
       </c>
       <c r="C173" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D173" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -4037,10 +4037,10 @@
         <v>33037</v>
       </c>
       <c r="C174" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D174" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -4058,10 +4058,10 @@
         <v>33039</v>
       </c>
       <c r="C175" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D175" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -4079,10 +4079,10 @@
         <v>33040</v>
       </c>
       <c r="C176" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D176" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4100,10 +4100,10 @@
         <v>33041</v>
       </c>
       <c r="C177" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D177" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4121,10 +4121,10 @@
         <v>34002</v>
       </c>
       <c r="C178" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D178" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4142,10 +4142,10 @@
         <v>34003</v>
       </c>
       <c r="C179" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D179" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4163,10 +4163,10 @@
         <v>34009</v>
       </c>
       <c r="C180" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D180" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4184,10 +4184,10 @@
         <v>34013</v>
       </c>
       <c r="C181" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D181" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4205,10 +4205,10 @@
         <v>34022</v>
       </c>
       <c r="C182" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D182" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -4226,10 +4226,10 @@
         <v>34023</v>
       </c>
       <c r="C183" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D183" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -4247,10 +4247,10 @@
         <v>34025</v>
       </c>
       <c r="C184" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D184" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4268,10 +4268,10 @@
         <v>34027</v>
       </c>
       <c r="C185" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D185" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4289,10 +4289,10 @@
         <v>34040</v>
       </c>
       <c r="C186" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D186" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -4310,10 +4310,10 @@
         <v>34041</v>
       </c>
       <c r="C187" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D187" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4331,10 +4331,10 @@
         <v>34042</v>
       </c>
       <c r="C188" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D188" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4352,10 +4352,10 @@
         <v>34043</v>
       </c>
       <c r="C189" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D189" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -4373,10 +4373,10 @@
         <v>35002</v>
       </c>
       <c r="C190" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D190" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -4394,10 +4394,10 @@
         <v>35005</v>
       </c>
       <c r="C191" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D191" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4415,10 +4415,10 @@
         <v>35006</v>
       </c>
       <c r="C192" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D192" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4436,10 +4436,10 @@
         <v>35011</v>
       </c>
       <c r="C193" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D193" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4457,10 +4457,10 @@
         <v>35013</v>
       </c>
       <c r="C194" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D194" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4478,10 +4478,10 @@
         <v>35014</v>
       </c>
       <c r="C195" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D195" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4499,10 +4499,10 @@
         <v>35029</v>
       </c>
       <c r="C196" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D196" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4520,10 +4520,10 @@
         <v>36006</v>
       </c>
       <c r="C197" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D197" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4541,10 +4541,10 @@
         <v>36007</v>
       </c>
       <c r="C198" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D198" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4562,10 +4562,10 @@
         <v>36008</v>
       </c>
       <c r="C199" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D199" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4583,10 +4583,10 @@
         <v>36010</v>
       </c>
       <c r="C200" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D200" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4604,14 +4604,14 @@
         <v>36011</v>
       </c>
       <c r="C201" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D201" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>36011A0</t>
+          <t>36011LIBG</t>
         </is>
       </c>
     </row>
@@ -4625,10 +4625,10 @@
         <v>36012</v>
       </c>
       <c r="C202" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D202" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -4646,10 +4646,10 @@
         <v>36015</v>
       </c>
       <c r="C203" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D203" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4667,10 +4667,10 @@
         <v>36019</v>
       </c>
       <c r="C204" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D204" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -4688,10 +4688,10 @@
         <v>37002</v>
       </c>
       <c r="C205" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D205" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4709,10 +4709,10 @@
         <v>37007</v>
       </c>
       <c r="C206" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D206" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -4730,10 +4730,10 @@
         <v>37010</v>
       </c>
       <c r="C207" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D207" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4751,10 +4751,10 @@
         <v>37011</v>
       </c>
       <c r="C208" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D208" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4772,10 +4772,10 @@
         <v>37012</v>
       </c>
       <c r="C209" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D209" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4793,10 +4793,10 @@
         <v>37015</v>
       </c>
       <c r="C210" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D210" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4814,10 +4814,10 @@
         <v>37017</v>
       </c>
       <c r="C211" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D211" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4835,10 +4835,10 @@
         <v>37018</v>
       </c>
       <c r="C212" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D212" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4856,14 +4856,14 @@
         <v>37020</v>
       </c>
       <c r="C213" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D213" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>37020A0</t>
+          <t>37020ARD</t>
         </is>
       </c>
     </row>
@@ -4877,10 +4877,10 @@
         <v>38002</v>
       </c>
       <c r="C214" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D214" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4898,14 +4898,14 @@
         <v>38008</v>
       </c>
       <c r="C215" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D215" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>38008A0</t>
+          <t>38008ADIN</t>
         </is>
       </c>
     </row>
@@ -4919,10 +4919,10 @@
         <v>38014</v>
       </c>
       <c r="C216" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D216" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -4940,10 +4940,10 @@
         <v>38016</v>
       </c>
       <c r="C217" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D217" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -4961,10 +4961,10 @@
         <v>38025</v>
       </c>
       <c r="C218" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D218" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -4982,10 +4982,10 @@
         <v>41002</v>
       </c>
       <c r="C219" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D219" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -5003,10 +5003,10 @@
         <v>41011</v>
       </c>
       <c r="C220" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D220" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -5024,10 +5024,10 @@
         <v>41018</v>
       </c>
       <c r="C221" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D221" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -5045,10 +5045,10 @@
         <v>41024</v>
       </c>
       <c r="C222" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D222" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -5066,10 +5066,10 @@
         <v>41027</v>
       </c>
       <c r="C223" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D223" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -5087,10 +5087,10 @@
         <v>41034</v>
       </c>
       <c r="C224" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D224" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -5108,10 +5108,10 @@
         <v>41048</v>
       </c>
       <c r="C225" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D225" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -5129,10 +5129,10 @@
         <v>41063</v>
       </c>
       <c r="C226" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D226" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -5150,10 +5150,10 @@
         <v>41081</v>
       </c>
       <c r="C227" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D227" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -5171,10 +5171,10 @@
         <v>41082</v>
       </c>
       <c r="C228" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D228" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -5192,10 +5192,10 @@
         <v>42003</v>
       </c>
       <c r="C229" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D229" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -5213,10 +5213,10 @@
         <v>42004</v>
       </c>
       <c r="C230" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D230" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -5234,10 +5234,10 @@
         <v>42006</v>
       </c>
       <c r="C231" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D231" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -5255,14 +5255,14 @@
         <v>42008</v>
       </c>
       <c r="C232" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D232" s="8">
-        <v>2.00</v>
+        <v>1</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>42008A0</t>
+          <t>4200801</t>
         </is>
       </c>
     </row>
@@ -5276,10 +5276,10 @@
         <v>42010</v>
       </c>
       <c r="C233" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D233" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -5297,10 +5297,10 @@
         <v>42011</v>
       </c>
       <c r="C234" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D234" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -5318,10 +5318,10 @@
         <v>42023</v>
       </c>
       <c r="C235" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D235" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -5339,10 +5339,10 @@
         <v>42025</v>
       </c>
       <c r="C236" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D236" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -5360,10 +5360,10 @@
         <v>42026</v>
       </c>
       <c r="C237" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D237" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -5381,10 +5381,10 @@
         <v>42028</v>
       </c>
       <c r="C238" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D238" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -5402,10 +5402,10 @@
         <v>43002</v>
       </c>
       <c r="C239" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D239" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -5423,10 +5423,10 @@
         <v>43005</v>
       </c>
       <c r="C240" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D240" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -5444,10 +5444,10 @@
         <v>43007</v>
       </c>
       <c r="C241" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D241" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -5465,10 +5465,10 @@
         <v>43010</v>
       </c>
       <c r="C242" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D242" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -5486,10 +5486,10 @@
         <v>43014</v>
       </c>
       <c r="C243" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D243" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -5507,10 +5507,10 @@
         <v>43018</v>
       </c>
       <c r="C244" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D244" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -5528,10 +5528,10 @@
         <v>44012</v>
       </c>
       <c r="C245" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D245" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -5549,10 +5549,10 @@
         <v>44013</v>
       </c>
       <c r="C246" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D246" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -5570,10 +5570,10 @@
         <v>44019</v>
       </c>
       <c r="C247" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D247" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -5591,10 +5591,10 @@
         <v>44020</v>
       </c>
       <c r="C248" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D248" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -5612,10 +5612,10 @@
         <v>44021</v>
       </c>
       <c r="C249" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D249" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -5633,10 +5633,10 @@
         <v>44034</v>
       </c>
       <c r="C250" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D250" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -5654,10 +5654,10 @@
         <v>44040</v>
       </c>
       <c r="C251" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D251" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -5675,10 +5675,10 @@
         <v>44043</v>
       </c>
       <c r="C252" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D252" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -5696,10 +5696,10 @@
         <v>44045</v>
       </c>
       <c r="C253" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D253" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -5717,10 +5717,10 @@
         <v>44048</v>
       </c>
       <c r="C254" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D254" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -5738,10 +5738,10 @@
         <v>44052</v>
       </c>
       <c r="C255" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D255" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -5759,10 +5759,10 @@
         <v>44064</v>
       </c>
       <c r="C256" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D256" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -5780,10 +5780,10 @@
         <v>44073</v>
       </c>
       <c r="C257" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D257" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -5801,10 +5801,10 @@
         <v>44081</v>
       </c>
       <c r="C258" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D258" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -5822,10 +5822,10 @@
         <v>44083</v>
       </c>
       <c r="C259" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D259" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -5843,10 +5843,10 @@
         <v>44084</v>
       </c>
       <c r="C260" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D260" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -5864,10 +5864,10 @@
         <v>44085</v>
       </c>
       <c r="C261" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D261" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -5885,10 +5885,10 @@
         <v>45035</v>
       </c>
       <c r="C262" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D262" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -5906,10 +5906,10 @@
         <v>45041</v>
       </c>
       <c r="C263" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D263" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -5927,10 +5927,10 @@
         <v>45059</v>
       </c>
       <c r="C264" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D264" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -5948,10 +5948,10 @@
         <v>45060</v>
       </c>
       <c r="C265" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D265" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -5969,10 +5969,10 @@
         <v>45061</v>
       </c>
       <c r="C266" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D266" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -5990,10 +5990,10 @@
         <v>45062</v>
       </c>
       <c r="C267" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D267" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -6011,10 +6011,10 @@
         <v>45063</v>
       </c>
       <c r="C268" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D268" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -6032,10 +6032,10 @@
         <v>45064</v>
       </c>
       <c r="C269" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D269" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -6053,10 +6053,10 @@
         <v>45065</v>
       </c>
       <c r="C270" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D270" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -6074,10 +6074,10 @@
         <v>45068</v>
       </c>
       <c r="C271" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D271" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -6095,10 +6095,10 @@
         <v>46003</v>
       </c>
       <c r="C272" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D272" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -6116,10 +6116,10 @@
         <v>46013</v>
       </c>
       <c r="C273" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D273" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -6137,10 +6137,10 @@
         <v>46014</v>
       </c>
       <c r="C274" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D274" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -6158,10 +6158,10 @@
         <v>46020</v>
       </c>
       <c r="C275" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D275" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -6179,10 +6179,10 @@
         <v>46021</v>
       </c>
       <c r="C276" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D276" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -6200,10 +6200,10 @@
         <v>46024</v>
       </c>
       <c r="C277" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D277" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -6221,10 +6221,10 @@
         <v>46025</v>
       </c>
       <c r="C278" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D278" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -6242,10 +6242,10 @@
         <v>71002</v>
       </c>
       <c r="C279" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D279" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -6263,10 +6263,10 @@
         <v>71004</v>
       </c>
       <c r="C280" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D280" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -6284,10 +6284,10 @@
         <v>71011</v>
       </c>
       <c r="C281" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D281" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -6305,10 +6305,10 @@
         <v>71016</v>
       </c>
       <c r="C282" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D282" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -6326,10 +6326,10 @@
         <v>71017</v>
       </c>
       <c r="C283" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D283" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -6347,10 +6347,10 @@
         <v>71020</v>
       </c>
       <c r="C284" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D284" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -6368,10 +6368,10 @@
         <v>71022</v>
       </c>
       <c r="C285" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D285" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -6389,10 +6389,10 @@
         <v>71024</v>
       </c>
       <c r="C286" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D286" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -6410,10 +6410,10 @@
         <v>71034</v>
       </c>
       <c r="C287" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D287" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -6431,10 +6431,10 @@
         <v>71037</v>
       </c>
       <c r="C288" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D288" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -6452,10 +6452,10 @@
         <v>71045</v>
       </c>
       <c r="C289" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D289" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -6473,10 +6473,10 @@
         <v>71053</v>
       </c>
       <c r="C290" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D290" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -6494,10 +6494,10 @@
         <v>71057</v>
       </c>
       <c r="C291" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D291" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -6515,10 +6515,10 @@
         <v>71066</v>
       </c>
       <c r="C292" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D292" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -6536,10 +6536,10 @@
         <v>71067</v>
       </c>
       <c r="C293" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D293" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -6557,10 +6557,10 @@
         <v>71069</v>
       </c>
       <c r="C294" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D294" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -6578,10 +6578,10 @@
         <v>71070</v>
       </c>
       <c r="C295" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D295" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -6599,10 +6599,10 @@
         <v>72003</v>
       </c>
       <c r="C296" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D296" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -6620,10 +6620,10 @@
         <v>72004</v>
       </c>
       <c r="C297" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D297" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -6641,10 +6641,10 @@
         <v>72018</v>
       </c>
       <c r="C298" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D298" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -6662,10 +6662,10 @@
         <v>72020</v>
       </c>
       <c r="C299" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D299" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -6683,10 +6683,10 @@
         <v>72021</v>
       </c>
       <c r="C300" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D300" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -6704,10 +6704,10 @@
         <v>72030</v>
       </c>
       <c r="C301" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D301" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -6725,10 +6725,10 @@
         <v>72037</v>
       </c>
       <c r="C302" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D302" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -6746,10 +6746,10 @@
         <v>72038</v>
       </c>
       <c r="C303" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D303" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -6767,10 +6767,10 @@
         <v>72039</v>
       </c>
       <c r="C304" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D304" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -6788,10 +6788,10 @@
         <v>72041</v>
       </c>
       <c r="C305" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D305" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -6809,10 +6809,10 @@
         <v>72042</v>
       </c>
       <c r="C306" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D306" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -6830,10 +6830,10 @@
         <v>72043</v>
       </c>
       <c r="C307" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D307" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -6851,10 +6851,10 @@
         <v>73001</v>
       </c>
       <c r="C308" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D308" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -6872,10 +6872,10 @@
         <v>73006</v>
       </c>
       <c r="C309" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D309" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -6893,10 +6893,10 @@
         <v>73009</v>
       </c>
       <c r="C310" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D310" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -6914,10 +6914,10 @@
         <v>73022</v>
       </c>
       <c r="C311" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D311" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -6935,10 +6935,10 @@
         <v>73028</v>
       </c>
       <c r="C312" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D312" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -6956,10 +6956,10 @@
         <v>73032</v>
       </c>
       <c r="C313" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D313" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -6977,10 +6977,10 @@
         <v>73040</v>
       </c>
       <c r="C314" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D314" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -6998,10 +6998,10 @@
         <v>73042</v>
       </c>
       <c r="C315" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D315" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -7019,10 +7019,10 @@
         <v>73066</v>
       </c>
       <c r="C316" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D316" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -7040,10 +7040,10 @@
         <v>73083</v>
       </c>
       <c r="C317" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D317" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -7061,10 +7061,10 @@
         <v>73098</v>
       </c>
       <c r="C318" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D318" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -7082,10 +7082,10 @@
         <v>73107</v>
       </c>
       <c r="C319" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D319" s="8">
-        <v>1.00</v>
+        <v>1</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -7103,10 +7103,10 @@
         <v>73109</v>
       </c>
       <c r="C320" s="8">
-        <v>1970.00</v>
+        <v>1970</v>
       </c>
       <c r="D320" s="8">
-        <v>2.00</v>
+        <v>2</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>

--- a/data_voor_swing/uploadfiles/ggw7_type.xlsx
+++ b/data_voor_swing/uploadfiles/ggw7_type.xlsx
@@ -747,7 +747,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>110291</t>
+          <t>11029DIE</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1300401</t>
+          <t>13004_12</t>
         </is>
       </c>
     </row>
@@ -1415,11 +1415,11 @@
         <v>1970</v>
       </c>
       <c r="D49" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>13008A0</t>
+          <t>13008BEL</t>
         </is>
       </c>
     </row>
@@ -2654,11 +2654,11 @@
         <v>1970</v>
       </c>
       <c r="D108" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>23062A0</t>
+          <t>23062A0N</t>
         </is>
       </c>
     </row>
@@ -2843,11 +2843,11 @@
         <v>1970</v>
       </c>
       <c r="D117" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>23098A0</t>
+          <t>23098A0N</t>
         </is>
       </c>
     </row>
@@ -2906,11 +2906,11 @@
         <v>1970</v>
       </c>
       <c r="D120" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>23101A0</t>
+          <t>23101A0N</t>
         </is>
       </c>
     </row>
@@ -2948,11 +2948,11 @@
         <v>1970</v>
       </c>
       <c r="D122" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>23103A0</t>
+          <t>23103A0N</t>
         </is>
       </c>
     </row>
@@ -3221,11 +3221,11 @@
         <v>1970</v>
       </c>
       <c r="D135" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>24038A0</t>
+          <t>24038A0N</t>
         </is>
       </c>
     </row>
@@ -3515,11 +3515,11 @@
         <v>1970</v>
       </c>
       <c r="D149" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>24109A0</t>
+          <t>24109A0N</t>
         </is>
       </c>
     </row>
@@ -3557,11 +3557,11 @@
         <v>1970</v>
       </c>
       <c r="D151" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>24133A0</t>
+          <t>24133A0N</t>
         </is>
       </c>
     </row>
@@ -3620,11 +3620,11 @@
         <v>1970</v>
       </c>
       <c r="D154" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>24137A0</t>
+          <t>24137A0N</t>
         </is>
       </c>
     </row>
@@ -3809,11 +3809,11 @@
         <v>1970</v>
       </c>
       <c r="D163" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>31042A0</t>
+          <t>31042HOUT</t>
         </is>
       </c>
     </row>
@@ -3935,11 +3935,11 @@
         <v>1970</v>
       </c>
       <c r="D169" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>32030A0</t>
+          <t>32030LO</t>
         </is>
       </c>
     </row>
@@ -4103,11 +4103,11 @@
         <v>1970</v>
       </c>
       <c r="D177" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>33041A0</t>
+          <t>33041OVLE</t>
         </is>
       </c>
     </row>
@@ -4124,11 +4124,11 @@
         <v>1970</v>
       </c>
       <c r="D178" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>34002A0</t>
+          <t>34002ANBUI</t>
         </is>
       </c>
     </row>
@@ -4229,11 +4229,11 @@
         <v>1970</v>
       </c>
       <c r="D183" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>34023A0</t>
+          <t>34023ABEL</t>
         </is>
       </c>
     </row>
@@ -4250,11 +4250,11 @@
         <v>1970</v>
       </c>
       <c r="D184" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>34025A0</t>
+          <t>34025LEBUI</t>
         </is>
       </c>
     </row>
@@ -4397,11 +4397,11 @@
         <v>1970</v>
       </c>
       <c r="D191" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>35005A0</t>
+          <t>35005GIBUI</t>
         </is>
       </c>
     </row>
@@ -4691,11 +4691,11 @@
         <v>1970</v>
       </c>
       <c r="D205" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>37002A0</t>
+          <t>37002DENT</t>
         </is>
       </c>
     </row>
@@ -4838,11 +4838,11 @@
         <v>1970</v>
       </c>
       <c r="D212" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>37018A0</t>
+          <t>37018HILL</t>
         </is>
       </c>
     </row>
@@ -6854,11 +6854,11 @@
         <v>1970</v>
       </c>
       <c r="D308" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>73001A0</t>
+          <t>73001CEN</t>
         </is>
       </c>
     </row>
